--- a/Results/high_correlation_stocks.xlsx
+++ b/Results/high_correlation_stocks.xlsx
@@ -1,47 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinli/Desktop/FinalProject/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF56E22-EA8E-8342-99D6-ED4C54D4D375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>AMZN</t>
+    <t>CVX</t>
   </si>
   <si>
-    <t>BBY</t>
+    <t>MPC</t>
   </si>
   <si>
-    <t>EBAY</t>
+    <t>PSX</t>
   </si>
   <si>
-    <t>WMT</t>
+    <t>XOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,7 +46,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,14 +101,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -399,17 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,4291 +409,4291 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43465</v>
       </c>
       <c r="B2">
-        <v>1501.969970703125</v>
+        <v>101.8396682739258</v>
       </c>
       <c r="C2">
-        <v>50.681560516357422</v>
+        <v>55.31446838378906</v>
       </c>
       <c r="D2">
-        <v>27.42650032043457</v>
+        <v>81.29618072509766</v>
       </c>
       <c r="E2">
-        <v>90.500625610351562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62.93212127685547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43467</v>
       </c>
       <c r="B3">
-        <v>1539.130004882812</v>
+        <v>103.6182861328125</v>
       </c>
       <c r="C3">
-        <v>51.294033050537109</v>
+        <v>55.90502166748047</v>
       </c>
       <c r="D3">
-        <v>28.188617706298832</v>
+        <v>83.15518188476562</v>
       </c>
       <c r="E3">
-        <v>90.685211181640625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.31645965576172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
       <c r="B4">
-        <v>1500.280029296875</v>
+        <v>101.6337280273438</v>
       </c>
       <c r="C4">
-        <v>50.241352081298828</v>
+        <v>55.08950042724609</v>
       </c>
       <c r="D4">
-        <v>27.670768737792969</v>
+        <v>82.00392150878906</v>
       </c>
       <c r="E4">
-        <v>90.2188720703125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63.32896041870117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
       <c r="B5">
-        <v>1575.390014648438</v>
+        <v>103.7399749755859</v>
       </c>
       <c r="C5">
-        <v>50.480598449707031</v>
+        <v>57.78914260864258</v>
       </c>
       <c r="D5">
-        <v>28.305866241455082</v>
+        <v>85.72193145751953</v>
       </c>
       <c r="E5">
-        <v>90.782379150390625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.66388702392578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43472</v>
       </c>
       <c r="B6">
-        <v>1629.510009765625</v>
+        <v>105.0879898071289</v>
       </c>
       <c r="C6">
-        <v>53.361103057861328</v>
+        <v>58.36093902587891</v>
       </c>
       <c r="D6">
-        <v>28.794404983520511</v>
+        <v>86.31643676757812</v>
       </c>
       <c r="E6">
-        <v>91.851089477539062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.00535583496094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43473</v>
       </c>
       <c r="B7">
-        <v>1656.579956054688</v>
+        <v>104.6292877197266</v>
       </c>
       <c r="C7">
-        <v>54.930553436279297</v>
+        <v>58.9327392578125</v>
       </c>
       <c r="D7">
-        <v>29.312255859375</v>
+        <v>86.24094390869141</v>
       </c>
       <c r="E7">
-        <v>92.492317199707031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.48525238037109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43474</v>
       </c>
       <c r="B8">
-        <v>1659.420043945312</v>
+        <v>106.033447265625</v>
       </c>
       <c r="C8">
-        <v>55.342052459716797</v>
+        <v>60.19819641113281</v>
       </c>
       <c r="D8">
-        <v>29.59560585021973</v>
+        <v>86.80713653564453</v>
       </c>
       <c r="E8">
-        <v>92.191139221191406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.83596038818359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43475</v>
       </c>
       <c r="B9">
-        <v>1656.219970703125</v>
+        <v>106.2019500732422</v>
       </c>
       <c r="C9">
-        <v>54.423351287841797</v>
+        <v>59.64514541625977</v>
       </c>
       <c r="D9">
-        <v>29.86918830871582</v>
+        <v>87.70362091064453</v>
       </c>
       <c r="E9">
-        <v>92.259147644042969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.49449157714844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43476</v>
       </c>
       <c r="B10">
-        <v>1640.56005859375</v>
+        <v>105.35009765625</v>
       </c>
       <c r="C10">
-        <v>54.078838348388672</v>
+        <v>60.80748748779297</v>
       </c>
       <c r="D10">
-        <v>29.71285438537598</v>
+        <v>87.46770477294922</v>
       </c>
       <c r="E10">
-        <v>92.142555236816406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.18994140625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>43479</v>
       </c>
       <c r="B11">
-        <v>1617.2099609375</v>
+        <v>104.5824737548828</v>
       </c>
       <c r="C11">
-        <v>54.815704345703118</v>
+        <v>60.81686019897461</v>
       </c>
       <c r="D11">
-        <v>29.517438888549801</v>
+        <v>87.59981536865234</v>
       </c>
       <c r="E11">
-        <v>92.249420166015625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.10688018798828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>43480</v>
       </c>
       <c r="B12">
-        <v>1674.56005859375</v>
+        <v>104.9569320678711</v>
       </c>
       <c r="C12">
-        <v>54.231956481933587</v>
+        <v>60.30130386352539</v>
       </c>
       <c r="D12">
-        <v>29.96689414978027</v>
+        <v>87.24121856689453</v>
       </c>
       <c r="E12">
-        <v>93.512451171875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.14378356933594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>43481</v>
       </c>
       <c r="B13">
-        <v>1683.780029296875</v>
+        <v>104.2829284667969</v>
       </c>
       <c r="C13">
-        <v>53.906585693359382</v>
+        <v>60.31067657470703</v>
       </c>
       <c r="D13">
-        <v>29.59560585021973</v>
+        <v>87.75080108642578</v>
       </c>
       <c r="E13">
-        <v>93.609611511230469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.11609649658203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>43482</v>
       </c>
       <c r="B14">
-        <v>1693.219970703125</v>
+        <v>104.8071441650391</v>
       </c>
       <c r="C14">
-        <v>55.332477569580078</v>
+        <v>61.66986465454102</v>
       </c>
       <c r="D14">
-        <v>29.68354415893555</v>
+        <v>88.15657043457031</v>
       </c>
       <c r="E14">
-        <v>93.988517761230469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.56830596923828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>43483</v>
       </c>
       <c r="B15">
-        <v>1696.199951171875</v>
+        <v>107.0631790161133</v>
       </c>
       <c r="C15">
-        <v>56.184185028076172</v>
+        <v>61.95107650756836</v>
       </c>
       <c r="D15">
-        <v>30.28932952880859</v>
+        <v>89.93065643310547</v>
       </c>
       <c r="E15">
-        <v>94.950363159179688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.36201477050781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>43487</v>
       </c>
       <c r="B16">
-        <v>1632.170043945312</v>
+        <v>105.1628723144531</v>
       </c>
       <c r="C16">
-        <v>55.284629821777337</v>
+        <v>60.7606201171875</v>
       </c>
       <c r="D16">
-        <v>32.145774841308587</v>
+        <v>87.76023864746094</v>
       </c>
       <c r="E16">
-        <v>94.717178344726562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.34681701660156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>43488</v>
       </c>
       <c r="B17">
-        <v>1640.02001953125</v>
+        <v>104.273567199707</v>
       </c>
       <c r="C17">
-        <v>54.844425201416023</v>
+        <v>60.78873825073242</v>
       </c>
       <c r="D17">
-        <v>31.862421035766602</v>
+        <v>87.41108703613281</v>
       </c>
       <c r="E17">
-        <v>95.902488708496094</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.80232238769531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>43489</v>
       </c>
       <c r="B18">
-        <v>1654.930053710938</v>
+        <v>106.2581253051758</v>
       </c>
       <c r="C18">
-        <v>55.121936798095703</v>
+        <v>59.15770721435547</v>
       </c>
       <c r="D18">
-        <v>31.901506423950199</v>
+        <v>86.184326171875</v>
       </c>
       <c r="E18">
-        <v>95.56243896484375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.89460754394531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>43490</v>
       </c>
       <c r="B19">
-        <v>1670.569946289062</v>
+        <v>105.9866409301758</v>
       </c>
       <c r="C19">
-        <v>56.787090301513672</v>
+        <v>60.06695938110352</v>
       </c>
       <c r="D19">
-        <v>32.946975708007812</v>
+        <v>87.77909851074219</v>
       </c>
       <c r="E19">
-        <v>94.182838439941406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.18994140625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>43493</v>
       </c>
       <c r="B20">
-        <v>1637.890014648438</v>
+        <v>105.0037307739258</v>
       </c>
       <c r="C20">
-        <v>56.940200805664062</v>
+        <v>59.72950744628906</v>
       </c>
       <c r="D20">
-        <v>33.240097045898438</v>
+        <v>87.28839874267578</v>
       </c>
       <c r="E20">
-        <v>94.299407958984375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.7469482421875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>43494</v>
       </c>
       <c r="B21">
-        <v>1593.880004882812</v>
+        <v>104.6854553222656</v>
       </c>
       <c r="C21">
-        <v>56.251171112060547</v>
+        <v>60.12320327758789</v>
       </c>
       <c r="D21">
-        <v>32.91766357421875</v>
+        <v>88.09051513671875</v>
       </c>
       <c r="E21">
-        <v>93.959373474121094</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.99611663818359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>43495</v>
       </c>
       <c r="B22">
-        <v>1670.430053710938</v>
+        <v>105.7900772094727</v>
       </c>
       <c r="C22">
-        <v>56.442577362060547</v>
+        <v>61.23868560791016</v>
       </c>
       <c r="D22">
-        <v>33.298725128173828</v>
+        <v>89.20403289794922</v>
       </c>
       <c r="E22">
-        <v>92.10369873046875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.71598815917969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>43496</v>
       </c>
       <c r="B23">
-        <v>1718.72998046875</v>
+        <v>107.3252792358398</v>
       </c>
       <c r="C23">
-        <v>56.691387176513672</v>
+        <v>62.11043930053711</v>
       </c>
       <c r="D23">
-        <v>32.878582000732422</v>
+        <v>90.03445434570312</v>
       </c>
       <c r="E23">
-        <v>93.104393005371094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.629638671875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>43497</v>
       </c>
       <c r="B24">
-        <v>1626.22998046875</v>
+        <v>110.8076324462891</v>
       </c>
       <c r="C24">
-        <v>55.954524993896477</v>
+        <v>61.36991500854492</v>
       </c>
       <c r="D24">
-        <v>33.523448944091797</v>
+        <v>88.90206146240234</v>
       </c>
       <c r="E24">
-        <v>91.190437316894531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.06608581542969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>43500</v>
       </c>
       <c r="B25">
-        <v>1633.31005859375</v>
+        <v>112.0901031494141</v>
       </c>
       <c r="C25">
-        <v>56.662681579589837</v>
+        <v>61.78235626220703</v>
       </c>
       <c r="D25">
-        <v>34.246482849121087</v>
+        <v>89.42107391357422</v>
       </c>
       <c r="E25">
-        <v>92.074539184570312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.05089569091797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>43501</v>
       </c>
       <c r="B26">
-        <v>1658.81005859375</v>
+        <v>111.8467254638672</v>
       </c>
       <c r="C26">
-        <v>56.959342956542969</v>
+        <v>62.97282409667969</v>
       </c>
       <c r="D26">
-        <v>34.520069122314453</v>
+        <v>89.80796813964844</v>
       </c>
       <c r="E26">
-        <v>92.880943298339844</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.76152801513672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>43502</v>
       </c>
       <c r="B27">
-        <v>1640.260009765625</v>
+        <v>111.2850494384766</v>
       </c>
       <c r="C27">
-        <v>56.901924133300781</v>
+        <v>62.6822395324707</v>
       </c>
       <c r="D27">
-        <v>34.6666259765625</v>
+        <v>89.10022735595703</v>
       </c>
       <c r="E27">
-        <v>92.9197998046875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.45698547363281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>43503</v>
       </c>
       <c r="B28">
-        <v>1614.369995117188</v>
+        <v>110.6765747070312</v>
       </c>
       <c r="C28">
-        <v>56.327739715576172</v>
+        <v>59.71075820922852</v>
       </c>
       <c r="D28">
-        <v>34.441902160644531</v>
+        <v>86.57122802734375</v>
       </c>
       <c r="E28">
-        <v>93.978805541992188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.92169189453125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>43504</v>
       </c>
       <c r="B29">
-        <v>1588.219970703125</v>
+        <v>110.0680999755859</v>
       </c>
       <c r="C29">
-        <v>56.413867950439453</v>
+        <v>58.79213714599609</v>
       </c>
       <c r="D29">
-        <v>34.451671600341797</v>
+        <v>88.25093078613281</v>
       </c>
       <c r="E29">
-        <v>92.86151123046875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.03368377685547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>43507</v>
       </c>
       <c r="B30">
-        <v>1591</v>
+        <v>109.4783477783203</v>
       </c>
       <c r="C30">
-        <v>55.935379028320312</v>
+        <v>57.85475158691406</v>
       </c>
       <c r="D30">
-        <v>34.774101257324219</v>
+        <v>88.92093658447266</v>
       </c>
       <c r="E30">
-        <v>93.463874816894531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.14565277099609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>43508</v>
       </c>
       <c r="B31">
-        <v>1638.010009765625</v>
+        <v>111.13525390625</v>
       </c>
       <c r="C31">
-        <v>57.284713745117188</v>
+        <v>57.995361328125</v>
       </c>
       <c r="D31">
-        <v>35.3603515625</v>
+        <v>88.70388793945312</v>
       </c>
       <c r="E31">
-        <v>94.21197509765625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.35873413085938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>43509</v>
       </c>
       <c r="B32">
-        <v>1640</v>
+        <v>111.9309616088867</v>
       </c>
       <c r="C32">
-        <v>56.930633544921882</v>
+        <v>59.66389083862305</v>
       </c>
       <c r="D32">
-        <v>35.428741455078118</v>
+        <v>90.70446014404297</v>
       </c>
       <c r="E32">
-        <v>95.154388427734375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.15190124511719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>43510</v>
       </c>
       <c r="B33">
-        <v>1622.650024414062</v>
+        <v>111.7229385375977</v>
       </c>
       <c r="C33">
-        <v>57.007190704345703</v>
+        <v>60.02946472167969</v>
       </c>
       <c r="D33">
-        <v>35.487369537353523</v>
+        <v>90.26092529296875</v>
       </c>
       <c r="E33">
-        <v>95.717880249023438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.17057037353516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>43511</v>
       </c>
       <c r="B34">
-        <v>1607.949951171875</v>
+        <v>112.8481140136719</v>
       </c>
       <c r="C34">
-        <v>57.590953826904297</v>
+        <v>61.06995010375977</v>
       </c>
       <c r="D34">
-        <v>35.741409301757812</v>
+        <v>91.34578704833984</v>
       </c>
       <c r="E34">
-        <v>97.146080017089844</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.5142822265625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>43515</v>
       </c>
       <c r="B35">
-        <v>1627.579956054688</v>
+        <v>112.8102951049805</v>
       </c>
       <c r="C35">
-        <v>57.744068145751953</v>
+        <v>61.43853378295898</v>
       </c>
       <c r="D35">
-        <v>36.200634002685547</v>
+        <v>92.06900787353516</v>
       </c>
       <c r="E35">
-        <v>99.293220520019531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.99951934814453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>43516</v>
       </c>
       <c r="B36">
-        <v>1622.099975585938</v>
+        <v>113.7274475097656</v>
       </c>
       <c r="C36">
-        <v>57.724929809570312</v>
+        <v>61.53303527832031</v>
       </c>
       <c r="D36">
-        <v>35.897743225097663</v>
+        <v>92.73513793945312</v>
       </c>
       <c r="E36">
-        <v>97.039207458496094</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.27945709228516</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>43517</v>
       </c>
       <c r="B37">
-        <v>1619.43994140625</v>
+        <v>112.6495513916016</v>
       </c>
       <c r="C37">
-        <v>57.198585510253913</v>
+        <v>61.10775756835938</v>
       </c>
       <c r="D37">
-        <v>36.132236480712891</v>
+        <v>92.1260986328125</v>
       </c>
       <c r="E37">
-        <v>96.563148498535156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.61693572998047</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>43518</v>
       </c>
       <c r="B38">
-        <v>1631.56005859375</v>
+        <v>112.8859329223633</v>
       </c>
       <c r="C38">
-        <v>57.839756011962891</v>
+        <v>61.44797515869141</v>
       </c>
       <c r="D38">
-        <v>36.630550384521477</v>
+        <v>92.64949798583984</v>
       </c>
       <c r="E38">
-        <v>96.718589782714844</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.17681121826172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>43521</v>
       </c>
       <c r="B39">
-        <v>1633</v>
+        <v>113.1034240722656</v>
       </c>
       <c r="C39">
-        <v>57.945030212402337</v>
+        <v>61.19281387329102</v>
       </c>
       <c r="D39">
-        <v>36.483985900878913</v>
+        <v>92.58287811279297</v>
       </c>
       <c r="E39">
-        <v>96.300819396972656</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.25147247314453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>43522</v>
       </c>
       <c r="B40">
-        <v>1636.400024414062</v>
+        <v>113.4059829711914</v>
       </c>
       <c r="C40">
-        <v>57.715358734130859</v>
+        <v>61.04159545898438</v>
       </c>
       <c r="D40">
-        <v>36.523067474365227</v>
+        <v>93.10626220703125</v>
       </c>
       <c r="E40">
-        <v>95.883056640625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.40077209472656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>43523</v>
       </c>
       <c r="B41">
-        <v>1641.089965820312</v>
+        <v>113.5383529663086</v>
       </c>
       <c r="C41">
-        <v>65.859245300292969</v>
+        <v>59.9169807434082</v>
       </c>
       <c r="D41">
-        <v>36.718486785888672</v>
+        <v>92.91593933105469</v>
       </c>
       <c r="E41">
-        <v>95.319549560546875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.1566162109375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>43524</v>
       </c>
       <c r="B42">
-        <v>1639.829956054688</v>
+        <v>113.0655899047852</v>
       </c>
       <c r="C42">
-        <v>65.878379821777344</v>
+        <v>58.60333251953125</v>
       </c>
       <c r="D42">
-        <v>36.434074401855469</v>
+        <v>91.6978759765625</v>
       </c>
       <c r="E42">
-        <v>96.174522399902344</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.74603271484375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>43525</v>
       </c>
       <c r="B43">
-        <v>1671.72998046875</v>
+        <v>115.3821105957031</v>
       </c>
       <c r="C43">
-        <v>64.892684936523438</v>
+        <v>59.23653030395508</v>
       </c>
       <c r="D43">
-        <v>36.630218505859382</v>
+        <v>92.76367950439453</v>
       </c>
       <c r="E43">
-        <v>95.144676208496094</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.65116882324219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>43528</v>
       </c>
       <c r="B44">
-        <v>1696.170043945312</v>
+        <v>115.4672164916992</v>
       </c>
       <c r="C44">
-        <v>64.174957275390625</v>
+        <v>58.60333251953125</v>
       </c>
       <c r="D44">
-        <v>36.532142639160163</v>
+        <v>92.57335662841797</v>
       </c>
       <c r="E44">
-        <v>95.066940307617188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.94044494628906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>43529</v>
       </c>
       <c r="B45">
-        <v>1692.430053710938</v>
+        <v>116.5734710693359</v>
       </c>
       <c r="C45">
-        <v>63.935707092285163</v>
+        <v>57.46926879882812</v>
       </c>
       <c r="D45">
-        <v>36.404655456542969</v>
+        <v>92.74464416503906</v>
       </c>
       <c r="E45">
-        <v>95.543006896972656</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.82847595214844</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>43530</v>
       </c>
       <c r="B46">
-        <v>1668.949951171875</v>
+        <v>116.8003997802734</v>
       </c>
       <c r="C46">
-        <v>64.395065307617188</v>
+        <v>56.63761138916016</v>
       </c>
       <c r="D46">
-        <v>36.100624084472663</v>
+        <v>92.87788391113281</v>
       </c>
       <c r="E46">
-        <v>95.465286254882812</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.97930908203125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>43531</v>
       </c>
       <c r="B47">
-        <v>1625.949951171875</v>
+        <v>115.2970199584961</v>
       </c>
       <c r="C47">
-        <v>64.730010986328125</v>
+        <v>55.60749053955078</v>
       </c>
       <c r="D47">
-        <v>35.512187957763672</v>
+        <v>91.78351593017578</v>
       </c>
       <c r="E47">
-        <v>94.678329467773438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.80048370361328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>43532</v>
       </c>
       <c r="B48">
-        <v>1620.800048828125</v>
+        <v>114.9944534301758</v>
       </c>
       <c r="C48">
-        <v>64.471611022949219</v>
+        <v>54.34110641479492</v>
       </c>
       <c r="D48">
-        <v>35.198356628417969</v>
+        <v>89.74705505371094</v>
       </c>
       <c r="E48">
-        <v>94.814338684082031</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.72737121582031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>43535</v>
       </c>
       <c r="B49">
-        <v>1670.619995117188</v>
+        <v>116.885498046875</v>
       </c>
       <c r="C49">
-        <v>65.7635498046875</v>
+        <v>55.94771575927734</v>
       </c>
       <c r="D49">
-        <v>35.551414489746087</v>
+        <v>91.99288177490234</v>
       </c>
       <c r="E49">
-        <v>95.679039001464844</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.44588470458984</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>43536</v>
       </c>
       <c r="B50">
-        <v>1673.099975585938</v>
+        <v>117.1502456665039</v>
       </c>
       <c r="C50">
-        <v>65.868804931640625</v>
+        <v>55.62639236450195</v>
       </c>
       <c r="D50">
-        <v>35.580837249755859</v>
+        <v>92.67803955078125</v>
       </c>
       <c r="E50">
-        <v>95.572158813476562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.65116882324219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>43537</v>
       </c>
       <c r="B51">
-        <v>1690.81005859375</v>
+        <v>117.8782958984375</v>
       </c>
       <c r="C51">
-        <v>65.409461975097656</v>
+        <v>56.29738616943359</v>
       </c>
       <c r="D51">
-        <v>35.757369995117188</v>
+        <v>93.33466339111328</v>
       </c>
       <c r="E51">
-        <v>96.213386535644531</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.31371307373047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>43538</v>
       </c>
       <c r="B52">
-        <v>1686.219970703125</v>
+        <v>117.8121109008789</v>
       </c>
       <c r="C52">
-        <v>65.887947082519531</v>
+        <v>56.41079330444336</v>
       </c>
       <c r="D52">
-        <v>35.649490356445312</v>
+        <v>93.70579528808594</v>
       </c>
       <c r="E52">
-        <v>95.939888000488281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.06175994873047</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>43539</v>
       </c>
       <c r="B53">
-        <v>1712.359985351562</v>
+        <v>118.4834289550781</v>
       </c>
       <c r="C53">
-        <v>66.634384155273438</v>
+        <v>57.12904357910156</v>
       </c>
       <c r="D53">
-        <v>35.600456237792969</v>
+        <v>93.75335693359375</v>
       </c>
       <c r="E53">
-        <v>96.135246276855469</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.79115295410156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>43542</v>
       </c>
       <c r="B54">
-        <v>1742.150024414062</v>
+        <v>119.0223770141602</v>
       </c>
       <c r="C54">
-        <v>67.2181396484375</v>
+        <v>58.66949462890625</v>
       </c>
       <c r="D54">
-        <v>35.571033477783203</v>
+        <v>93.94369506835938</v>
       </c>
       <c r="E54">
-        <v>97.346466064453125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.65896606445312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>43543</v>
       </c>
       <c r="B55">
-        <v>1761.849975585938</v>
+        <v>118.4550704956055</v>
       </c>
       <c r="C55">
-        <v>67.362724304199219</v>
+        <v>58.62223815917969</v>
       </c>
       <c r="D55">
-        <v>36.159465789794922</v>
+        <v>94.10546875</v>
       </c>
       <c r="E55">
-        <v>97.532051086425781</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.4630126953125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>43544</v>
       </c>
       <c r="B56">
-        <v>1797.27001953125</v>
+        <v>117.8972091674805</v>
       </c>
       <c r="C56">
-        <v>66.610931396484375</v>
+        <v>58.7734489440918</v>
       </c>
       <c r="D56">
-        <v>35.992752075195312</v>
+        <v>93.42981719970703</v>
       </c>
       <c r="E56">
-        <v>96.350135803222656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.88291931152344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>43545</v>
       </c>
       <c r="B57">
-        <v>1819.260009765625</v>
+        <v>119.0034713745117</v>
       </c>
       <c r="C57">
-        <v>68.008491516113281</v>
+        <v>59.34048843383789</v>
       </c>
       <c r="D57">
-        <v>36.483108520507812</v>
+        <v>93.78192138671875</v>
       </c>
       <c r="E57">
-        <v>96.760368347167969</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.32149505615234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>43546</v>
       </c>
       <c r="B58">
-        <v>1764.77001953125</v>
+        <v>116.3843688964844</v>
       </c>
       <c r="C58">
-        <v>67.574775695800781</v>
+        <v>57.93234252929688</v>
       </c>
       <c r="D58">
-        <v>35.943710327148438</v>
+        <v>91.33625793457031</v>
       </c>
       <c r="E58">
-        <v>95.998489379882812</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.09909057617188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>43549</v>
       </c>
       <c r="B59">
-        <v>1774.260009765625</v>
+        <v>116.1952667236328</v>
       </c>
       <c r="C59">
-        <v>68.326560974121094</v>
+        <v>57.80948257446289</v>
       </c>
       <c r="D59">
-        <v>36.012359619140618</v>
+        <v>91.22206878662109</v>
       </c>
       <c r="E59">
-        <v>95.891044616699219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.57652282714844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>43550</v>
       </c>
       <c r="B60">
-        <v>1783.760009765625</v>
+        <v>117.3676986694336</v>
       </c>
       <c r="C60">
-        <v>67.950668334960938</v>
+        <v>58.55608749389648</v>
       </c>
       <c r="D60">
-        <v>36.188896179199219</v>
+        <v>93.27754974365234</v>
       </c>
       <c r="E60">
-        <v>96.037559509277344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.54698944091797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>43551</v>
       </c>
       <c r="B61">
-        <v>1765.699951171875</v>
+        <v>116.1007080078125</v>
       </c>
       <c r="C61">
-        <v>67.950668334960938</v>
+        <v>58.7734489440918</v>
       </c>
       <c r="D61">
-        <v>36.120243072509773</v>
+        <v>92.56383514404297</v>
       </c>
       <c r="E61">
-        <v>94.953323364257812</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.96843719482422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2">
         <v>43552</v>
       </c>
       <c r="B62">
-        <v>1773.420043945312</v>
+        <v>116.3181838989258</v>
       </c>
       <c r="C62">
-        <v>68.528961181640625</v>
+        <v>57.6015739440918</v>
       </c>
       <c r="D62">
-        <v>36.071208953857422</v>
+        <v>91.041259765625</v>
       </c>
       <c r="E62">
-        <v>94.87518310546875</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.34169769287109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2">
         <v>43553</v>
       </c>
       <c r="B63">
-        <v>1780.75</v>
+        <v>116.4694747924805</v>
       </c>
       <c r="C63">
-        <v>68.490409851074219</v>
+        <v>56.5620002746582</v>
       </c>
       <c r="D63">
-        <v>36.424266815185547</v>
+        <v>90.56545257568359</v>
       </c>
       <c r="E63">
-        <v>95.265899658203125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.39768981933594</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="2">
         <v>43556</v>
       </c>
       <c r="B64">
-        <v>1814.18994140625</v>
+        <v>118.1335906982422</v>
       </c>
       <c r="C64">
-        <v>69.483161926269531</v>
+        <v>57.69607543945312</v>
       </c>
       <c r="D64">
-        <v>36.953857421875</v>
+        <v>90.47029113769531</v>
       </c>
       <c r="E64">
-        <v>95.549163818359375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.26551818847656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="2">
         <v>43557</v>
       </c>
       <c r="B65">
-        <v>1813.97998046875</v>
+        <v>118.1241302490234</v>
       </c>
       <c r="C65">
-        <v>68.866310119628906</v>
+        <v>56.62815856933594</v>
       </c>
       <c r="D65">
-        <v>37.189231872558587</v>
+        <v>89.9468994140625</v>
       </c>
       <c r="E65">
-        <v>94.689598083496094</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.93891143798828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="2">
         <v>43558</v>
       </c>
       <c r="B66">
-        <v>1820.699951171875</v>
+        <v>117.1407928466797</v>
       </c>
       <c r="C66">
-        <v>69.916900634765625</v>
+        <v>57.06288528442383</v>
       </c>
       <c r="D66">
-        <v>37.257888793945312</v>
+        <v>90.44173431396484</v>
       </c>
       <c r="E66">
-        <v>94.933807373046875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.49100494384766</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="2">
         <v>43559</v>
       </c>
       <c r="B67">
-        <v>1818.859985351562</v>
+        <v>118.0012130737305</v>
       </c>
       <c r="C67">
-        <v>71.873497009277344</v>
+        <v>57.97959899902344</v>
       </c>
       <c r="D67">
-        <v>37.316730499267578</v>
+        <v>92.17369842529297</v>
       </c>
       <c r="E67">
-        <v>95.832435607910156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.56412506103516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="2">
         <v>43560</v>
       </c>
       <c r="B68">
-        <v>1837.280029296875</v>
+        <v>119.5329666137695</v>
       </c>
       <c r="C68">
-        <v>72.066261291503906</v>
+        <v>59.98312759399414</v>
       </c>
       <c r="D68">
-        <v>37.110774993896477</v>
+        <v>93.05869293212891</v>
       </c>
       <c r="E68">
-        <v>96.535728454589844</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.97468566894531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="2">
         <v>43563</v>
       </c>
       <c r="B69">
-        <v>1849.859985351562</v>
+        <v>119.7788009643555</v>
       </c>
       <c r="C69">
-        <v>72.114456176757812</v>
+        <v>59.87917327880859</v>
       </c>
       <c r="D69">
-        <v>37.081356048583977</v>
+        <v>93.54401397705078</v>
       </c>
       <c r="E69">
-        <v>96.926445007324219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77.45059204101562</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="2">
         <v>43564</v>
       </c>
       <c r="B70">
-        <v>1835.839965820312</v>
+        <v>118.7009048461914</v>
       </c>
       <c r="C70">
-        <v>72.046989440917969</v>
+        <v>58.74509811401367</v>
       </c>
       <c r="D70">
-        <v>37.022514343261719</v>
+        <v>92.65901184082031</v>
       </c>
       <c r="E70">
-        <v>96.398979187011719</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.45213317871094</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="2">
         <v>43565</v>
       </c>
       <c r="B71">
-        <v>1847.329956054688</v>
+        <v>118.6536178588867</v>
       </c>
       <c r="C71">
-        <v>71.796379089355469</v>
+        <v>60.10598754882812</v>
       </c>
       <c r="D71">
-        <v>36.993087768554688</v>
+        <v>93.83900451660156</v>
       </c>
       <c r="E71">
-        <v>97.287849426269531</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.10687255859375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="2">
         <v>43566</v>
       </c>
       <c r="B72">
-        <v>1844.069946289062</v>
+        <v>119.1263809204102</v>
       </c>
       <c r="C72">
-        <v>71.304832458496094</v>
+        <v>59.64291000366211</v>
       </c>
       <c r="D72">
-        <v>35.620067596435547</v>
+        <v>93.74385070800781</v>
       </c>
       <c r="E72">
-        <v>98.459999084472656</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.47080230712891</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>43567</v>
       </c>
       <c r="B73">
-        <v>1843.06005859375</v>
+        <v>113.2357940673828</v>
       </c>
       <c r="C73">
-        <v>70.909660339355469</v>
+        <v>58.20641326904297</v>
       </c>
       <c r="D73">
-        <v>35.472957611083977</v>
+        <v>92.46868896484375</v>
       </c>
       <c r="E73">
-        <v>99.202339172363281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.50966644287109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>43570</v>
       </c>
       <c r="B74">
-        <v>1844.869995117188</v>
+        <v>113.5950775146484</v>
       </c>
       <c r="C74">
-        <v>70.591583251953125</v>
+        <v>57.21409606933594</v>
       </c>
       <c r="D74">
-        <v>35.531803131103523</v>
+        <v>91.58367919921875</v>
       </c>
       <c r="E74">
-        <v>100.0521621704102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.25772094726562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2">
         <v>43571</v>
       </c>
       <c r="B75">
-        <v>1863.0400390625</v>
+        <v>114.568962097168</v>
       </c>
       <c r="C75">
-        <v>70.514488220214844</v>
+        <v>56.7226676940918</v>
       </c>
       <c r="D75">
-        <v>35.688720703125</v>
+        <v>91.33625793457031</v>
       </c>
       <c r="E75">
-        <v>100.54055023193359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.77094268798828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="2">
         <v>43572</v>
       </c>
       <c r="B76">
-        <v>1864.819946289062</v>
+        <v>113.7179870605469</v>
       </c>
       <c r="C76">
-        <v>70.745803833007812</v>
+        <v>56.93057632446289</v>
       </c>
       <c r="D76">
-        <v>35.276817321777337</v>
+        <v>91.79302978515625</v>
       </c>
       <c r="E76">
-        <v>100.7652053833008</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.98557281494141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="2">
         <v>43573</v>
       </c>
       <c r="B77">
-        <v>1861.68994140625</v>
+        <v>113.3303298950195</v>
       </c>
       <c r="C77">
-        <v>70.977119445800781</v>
+        <v>56.52420043945312</v>
       </c>
       <c r="D77">
-        <v>35.28662109375</v>
+        <v>90.80335235595703</v>
       </c>
       <c r="E77">
-        <v>100.7847366333008</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.70563507080078</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="2">
         <v>43577</v>
       </c>
       <c r="B78">
-        <v>1887.31005859375</v>
+        <v>115.2592010498047</v>
       </c>
       <c r="C78">
-        <v>69.974723815917969</v>
+        <v>57.77168273925781</v>
       </c>
       <c r="D78">
-        <v>35.453350067138672</v>
+        <v>92.44013214111328</v>
       </c>
       <c r="E78">
-        <v>99.993545532226562</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77.35727691650391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="2">
         <v>43578</v>
       </c>
       <c r="B79">
-        <v>1923.77001953125</v>
+        <v>115.3726577758789</v>
       </c>
       <c r="C79">
-        <v>70.957855224609375</v>
+        <v>57.70553588867188</v>
       </c>
       <c r="D79">
-        <v>35.96331787109375</v>
+        <v>92.68755340576172</v>
       </c>
       <c r="E79">
-        <v>100.6772918701172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77.80519104003906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="2">
         <v>43579</v>
       </c>
       <c r="B80">
-        <v>1901.75</v>
+        <v>111.8364105224609</v>
       </c>
       <c r="C80">
-        <v>71.989151000976562</v>
+        <v>56.23123168945312</v>
       </c>
       <c r="D80">
-        <v>37.777671813964837</v>
+        <v>89.718505859375</v>
       </c>
       <c r="E80">
-        <v>101.1266174316406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.29350280761719</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="2">
         <v>43580</v>
       </c>
       <c r="B81">
-        <v>1902.25</v>
+        <v>111.4771041870117</v>
       </c>
       <c r="C81">
-        <v>71.121688842773438</v>
+        <v>57.31805801391602</v>
       </c>
       <c r="D81">
-        <v>37.375572204589837</v>
+        <v>90.61302947998047</v>
       </c>
       <c r="E81">
-        <v>101.11684417724609</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.72274780273438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
         <v>43581</v>
       </c>
       <c r="B82">
-        <v>1950.630004882812</v>
+        <v>110.7206802368164</v>
       </c>
       <c r="C82">
-        <v>70.167495727539062</v>
+        <v>57.07233428955078</v>
       </c>
       <c r="D82">
-        <v>37.620758056640618</v>
+        <v>90.32753753662109</v>
       </c>
       <c r="E82">
-        <v>99.173042297363281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75.10840606689453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="2">
         <v>43584</v>
       </c>
       <c r="B83">
-        <v>1938.430053710938</v>
+        <v>111.3069152832031</v>
       </c>
       <c r="C83">
-        <v>70.736160278320312</v>
+        <v>57.63937377929688</v>
       </c>
       <c r="D83">
-        <v>37.512874603271477</v>
+        <v>90.74626159667969</v>
       </c>
       <c r="E83">
-        <v>99.202339172363281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.62318420410156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="2">
         <v>43585</v>
       </c>
       <c r="B84">
-        <v>1926.52001953125</v>
+        <v>113.5194320678711</v>
       </c>
       <c r="C84">
-        <v>71.719284057617188</v>
+        <v>57.52596664428711</v>
       </c>
       <c r="D84">
-        <v>38.003238677978523</v>
+        <v>89.70899200439453</v>
       </c>
       <c r="E84">
-        <v>100.45263671875</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74.91245269775391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2">
         <v>43586</v>
       </c>
       <c r="B85">
-        <v>1911.52001953125</v>
+        <v>111.3920059204102</v>
       </c>
       <c r="C85">
-        <v>71.160247802734375</v>
+        <v>56.65650939941406</v>
       </c>
       <c r="D85">
-        <v>37.071548461914062</v>
+        <v>87.39656066894531</v>
       </c>
       <c r="E85">
-        <v>99.006988525390625</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.41009521484375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="2">
         <v>43587</v>
       </c>
       <c r="B86">
-        <v>1900.819946289062</v>
+        <v>110.039909362793</v>
       </c>
       <c r="C86">
-        <v>72.461441040039062</v>
+        <v>55.46572875976562</v>
       </c>
       <c r="D86">
-        <v>36.865589141845703</v>
+        <v>84.78913116455078</v>
       </c>
       <c r="E86">
-        <v>98.801856994628906</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.12237548828125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="2">
         <v>43588</v>
       </c>
       <c r="B87">
-        <v>1962.4599609375</v>
+        <v>110.8814239501953</v>
       </c>
       <c r="C87">
-        <v>72.316864013671875</v>
+        <v>56.66595458984375</v>
       </c>
       <c r="D87">
-        <v>37.54229736328125</v>
+        <v>85.22687530517578</v>
       </c>
       <c r="E87">
-        <v>99.710289001464844</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.29032897949219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <v>43591</v>
       </c>
       <c r="B88">
-        <v>1950.550048828125</v>
+        <v>111.9498748779297</v>
       </c>
       <c r="C88">
-        <v>72.249382019042969</v>
+        <v>56.22178268432617</v>
       </c>
       <c r="D88">
-        <v>37.150009155273438</v>
+        <v>82.81928253173828</v>
       </c>
       <c r="E88">
-        <v>100.0814514160156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.97306060791016</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>43592</v>
       </c>
       <c r="B89">
-        <v>1921</v>
+        <v>111.8269500732422</v>
       </c>
       <c r="C89">
-        <v>70.639778137207031</v>
+        <v>56.16507720947266</v>
       </c>
       <c r="D89">
-        <v>36.953857421875</v>
+        <v>82.36250305175781</v>
       </c>
       <c r="E89">
-        <v>98.948394775390625</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.59047698974609</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="2">
         <v>43593</v>
       </c>
       <c r="B90">
-        <v>1917.77001953125</v>
+        <v>111.0988998413086</v>
       </c>
       <c r="C90">
-        <v>70.822921752929688</v>
+        <v>52.1958122253418</v>
       </c>
       <c r="D90">
-        <v>36.816558837890618</v>
+        <v>81.74396514892578</v>
       </c>
       <c r="E90">
-        <v>97.971595764160156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.70244598388672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="2">
         <v>43594</v>
       </c>
       <c r="B91">
-        <v>1899.869995117188</v>
+        <v>114.5878829956055</v>
       </c>
       <c r="C91">
-        <v>69.675933837890625</v>
+        <v>50.05051803588867</v>
       </c>
       <c r="D91">
-        <v>36.895015716552727</v>
+        <v>81.60121917724609</v>
       </c>
       <c r="E91">
-        <v>97.745742797851562</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.63713073730469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="2">
         <v>43595</v>
       </c>
       <c r="B92">
-        <v>1889.97998046875</v>
+        <v>115.3442993164062</v>
       </c>
       <c r="C92">
-        <v>68.741020202636719</v>
+        <v>50.23008346557617</v>
       </c>
       <c r="D92">
-        <v>36.659641265869141</v>
+        <v>82.45767211914062</v>
       </c>
       <c r="E92">
-        <v>100.07302093505859</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.26006317138672</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <v>43598</v>
       </c>
       <c r="B93">
-        <v>1822.680053710938</v>
+        <v>113.8787460327148</v>
       </c>
       <c r="C93">
-        <v>64.673606872558594</v>
+        <v>47.93357849121094</v>
       </c>
       <c r="D93">
-        <v>35.178741455078118</v>
+        <v>81.6392822265625</v>
       </c>
       <c r="E93">
-        <v>98.089424133300781</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.45780944824219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="2">
         <v>43599</v>
       </c>
       <c r="B94">
-        <v>1840.119995117188</v>
+        <v>115.0133666992188</v>
       </c>
       <c r="C94">
-        <v>65.174812316894531</v>
+        <v>48.49117279052734</v>
       </c>
       <c r="D94">
-        <v>36.090816497802727</v>
+        <v>82.71460723876953</v>
       </c>
       <c r="E94">
-        <v>98.482231140136719</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.55219268798828</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="2">
         <v>43600</v>
       </c>
       <c r="B95">
-        <v>1871.150024414062</v>
+        <v>115.4861297607422</v>
       </c>
       <c r="C95">
-        <v>65.406135559082031</v>
+        <v>48.88268280029297</v>
       </c>
       <c r="D95">
-        <v>36.326190948486328</v>
+        <v>83.07622528076172</v>
       </c>
       <c r="E95">
-        <v>98.079612731933594</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.08074188232422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="2">
         <v>43601</v>
       </c>
       <c r="B96">
-        <v>1907.569946289062</v>
+        <v>115.3429107666016</v>
       </c>
       <c r="C96">
-        <v>66.254295349121094</v>
+        <v>50.4774169921875</v>
       </c>
       <c r="D96">
-        <v>36.551761627197273</v>
+        <v>84.02783966064453</v>
       </c>
       <c r="E96">
-        <v>99.483833312988281</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.07130432128906</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="2">
         <v>43602</v>
       </c>
       <c r="B97">
-        <v>1869</v>
+        <v>115.0755462646484</v>
       </c>
       <c r="C97">
-        <v>66.437431335449219</v>
+        <v>49.60842895507812</v>
       </c>
       <c r="D97">
-        <v>36.188896179199219</v>
+        <v>81.53776550292969</v>
       </c>
       <c r="E97">
-        <v>99.041954040527344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.64657592773438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="2">
         <v>43605</v>
       </c>
       <c r="B98">
-        <v>1858.969970703125</v>
+        <v>115.3810882568359</v>
       </c>
       <c r="C98">
-        <v>66.350692749023438</v>
+        <v>49.77076721191406</v>
       </c>
       <c r="D98">
-        <v>35.855445861816413</v>
+        <v>81.25894927978516</v>
       </c>
       <c r="E98">
-        <v>99.690040588378906</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.63713836669922</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="2">
         <v>43606</v>
       </c>
       <c r="B99">
-        <v>1857.52001953125</v>
+        <v>115.8585052490234</v>
       </c>
       <c r="C99">
-        <v>67.420555114746094</v>
+        <v>50.87848281860352</v>
       </c>
       <c r="D99">
-        <v>35.87506103515625</v>
+        <v>82.83567810058594</v>
       </c>
       <c r="E99">
-        <v>99.297264099121094</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.96747589111328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="2">
         <v>43607</v>
       </c>
       <c r="B100">
-        <v>1859.680053710938</v>
+        <v>115.123291015625</v>
       </c>
       <c r="C100">
-        <v>66.66876220703125</v>
+        <v>49.57978439331055</v>
       </c>
       <c r="D100">
-        <v>35.610263824462891</v>
+        <v>82.29728698730469</v>
       </c>
       <c r="E100">
-        <v>100.3872528076172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.31623840332031</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="2">
         <v>43608</v>
       </c>
       <c r="B101">
-        <v>1815.47998046875</v>
+        <v>112.5452728271484</v>
       </c>
       <c r="C101">
-        <v>63.439891815185547</v>
+        <v>47.88001251220703</v>
       </c>
       <c r="D101">
-        <v>35.2572021484375</v>
+        <v>79.09576416015625</v>
       </c>
       <c r="E101">
-        <v>100.02392578125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.64564514160156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="2">
         <v>43609</v>
       </c>
       <c r="B102">
-        <v>1823.280029296875</v>
+        <v>113.3473205566406</v>
       </c>
       <c r="C102">
-        <v>63.555572509765618</v>
+        <v>48.02325057983398</v>
       </c>
       <c r="D102">
-        <v>35.433731079101562</v>
+        <v>79.73992156982422</v>
       </c>
       <c r="E102">
-        <v>100.81931304931641</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.938232421875</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="2">
         <v>43613</v>
       </c>
       <c r="B103">
-        <v>1836.430053710938</v>
+        <v>112.9653854370117</v>
       </c>
       <c r="C103">
-        <v>63.035091400146477</v>
+        <v>46.79139709472656</v>
       </c>
       <c r="D103">
-        <v>35.521995544433587</v>
+        <v>79.33612060546875</v>
       </c>
       <c r="E103">
-        <v>100.57382965087891</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.53191375732422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="2">
         <v>43614</v>
       </c>
       <c r="B104">
-        <v>1819.18994140625</v>
+        <v>111.4949493408203</v>
       </c>
       <c r="C104">
-        <v>62.206184387207031</v>
+        <v>46.7818489074707</v>
       </c>
       <c r="D104">
-        <v>35.404308319091797</v>
+        <v>79.55724334716797</v>
       </c>
       <c r="E104">
-        <v>100.2792434692383</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.10719299316406</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="2">
         <v>43615</v>
       </c>
       <c r="B105">
-        <v>1816.319946289062</v>
+        <v>110.1677474975586</v>
       </c>
       <c r="C105">
-        <v>62.659191131591797</v>
+        <v>44.98659133911133</v>
       </c>
       <c r="D105">
-        <v>35.817817687988281</v>
+        <v>78.89386749267578</v>
       </c>
       <c r="E105">
-        <v>100.3479766845703</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.92787170410156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="2">
         <v>43616</v>
       </c>
       <c r="B106">
-        <v>1775.069946289062</v>
+        <v>108.7068634033203</v>
       </c>
       <c r="C106">
-        <v>60.403804779052727</v>
+        <v>43.91706848144531</v>
       </c>
       <c r="D106">
-        <v>35.374774932861328</v>
+        <v>77.68248748779297</v>
       </c>
       <c r="E106">
-        <v>99.611495971679688</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.79524993896484</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="2">
         <v>43619</v>
       </c>
       <c r="B107">
-        <v>1692.68994140625</v>
+        <v>110.7501831054688</v>
       </c>
       <c r="C107">
-        <v>60.933917999267578</v>
+        <v>45.00568389892578</v>
       </c>
       <c r="D107">
-        <v>35.069561004638672</v>
+        <v>79.02846527099609</v>
       </c>
       <c r="E107">
-        <v>100.1221237182617</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.84291076660156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="2">
         <v>43620</v>
       </c>
       <c r="B108">
-        <v>1729.56005859375</v>
+        <v>112.0010147094727</v>
       </c>
       <c r="C108">
-        <v>61.627880096435547</v>
+        <v>46.30438613891602</v>
       </c>
       <c r="D108">
-        <v>35.975345611572273</v>
+        <v>80.87439727783203</v>
       </c>
       <c r="E108">
-        <v>100.7113037109375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.45687103271484</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="2">
         <v>43621</v>
       </c>
       <c r="B109">
-        <v>1738.5</v>
+        <v>112.335205078125</v>
       </c>
       <c r="C109">
-        <v>60.933917999267578</v>
+        <v>45.54044342041016</v>
       </c>
       <c r="D109">
-        <v>35.995037078857422</v>
+        <v>81.55699157714844</v>
       </c>
       <c r="E109">
-        <v>102.5377655029297</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.88114166259766</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="2">
         <v>43622</v>
       </c>
       <c r="B110">
-        <v>1754.359985351562</v>
+        <v>115.2283172607422</v>
       </c>
       <c r="C110">
-        <v>60.047187805175781</v>
+        <v>45.93196487426758</v>
       </c>
       <c r="D110">
-        <v>36.241176605224609</v>
+        <v>81.62429809570312</v>
       </c>
       <c r="E110">
-        <v>103.2153396606445</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.13643646240234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2">
         <v>43623</v>
       </c>
       <c r="B111">
-        <v>1804.030029296875</v>
+        <v>115.9921798706055</v>
       </c>
       <c r="C111">
-        <v>61.415836334228523</v>
+        <v>44.87199783325195</v>
       </c>
       <c r="D111">
-        <v>36.930355072021477</v>
+        <v>82.22037506103516</v>
       </c>
       <c r="E111">
-        <v>104.14821624755859</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.39127349853516</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="2">
         <v>43626</v>
       </c>
       <c r="B112">
-        <v>1860.630004882812</v>
+        <v>116.7655868530273</v>
       </c>
       <c r="C112">
-        <v>62.832675933837891</v>
+        <v>45.5308952331543</v>
       </c>
       <c r="D112">
-        <v>37.530929565429688</v>
+        <v>82.58571624755859</v>
       </c>
       <c r="E112">
-        <v>105.581901550293</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.70274353027344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="2">
         <v>43627</v>
       </c>
       <c r="B113">
-        <v>1863.699951171875</v>
+        <v>115.6961822509766</v>
       </c>
       <c r="C113">
-        <v>63.150741577148438</v>
+        <v>45.61684417724609</v>
       </c>
       <c r="D113">
-        <v>37.639228820800781</v>
+        <v>81.44161987304688</v>
       </c>
       <c r="E113">
-        <v>105.9943313598633</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.63667297363281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="2">
         <v>43628</v>
       </c>
       <c r="B114">
-        <v>1855.319946289062</v>
+        <v>114.7604522705078</v>
       </c>
       <c r="C114">
-        <v>62.597129821777337</v>
+        <v>44.85289764404297</v>
       </c>
       <c r="D114">
-        <v>38.417022705078118</v>
+        <v>80.03795623779297</v>
       </c>
       <c r="E114">
-        <v>106.8584671020508</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.87216949462891</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2">
         <v>43629</v>
       </c>
       <c r="B115">
-        <v>1870.300048828125</v>
+        <v>115.4479370117188</v>
       </c>
       <c r="C115">
-        <v>63.947174072265618</v>
+        <v>45.7409782409668</v>
       </c>
       <c r="D115">
-        <v>38.397335052490227</v>
+        <v>81.95117950439453</v>
       </c>
       <c r="E115">
-        <v>106.6915283203125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.48565673828125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="2">
         <v>43630</v>
       </c>
       <c r="B116">
-        <v>1869.670043945312</v>
+        <v>115.3524475097656</v>
       </c>
       <c r="C116">
-        <v>64.131706237792969</v>
+        <v>45.79827117919922</v>
       </c>
       <c r="D116">
-        <v>38.308723449707031</v>
+        <v>82.28766632080078</v>
       </c>
       <c r="E116">
-        <v>107.1039657592773</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.17418670654297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="2">
         <v>43633</v>
       </c>
       <c r="B117">
-        <v>1886.030029296875</v>
+        <v>115.90625</v>
       </c>
       <c r="C117">
-        <v>64.714454650878906</v>
+        <v>46.51446914672852</v>
       </c>
       <c r="D117">
-        <v>38.407176971435547</v>
+        <v>82.59532928466797</v>
       </c>
       <c r="E117">
-        <v>107.1923446655273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.87262725830078</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="2">
         <v>43634</v>
       </c>
       <c r="B118">
-        <v>1901.369995117188</v>
+        <v>117.3766708374023</v>
       </c>
       <c r="C118">
-        <v>66.676399230957031</v>
+        <v>47.40254974365234</v>
       </c>
       <c r="D118">
-        <v>39.056976318359382</v>
+        <v>83.45098114013672</v>
       </c>
       <c r="E118">
-        <v>107.6735000610352</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.48612213134766</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="2">
         <v>43635</v>
       </c>
       <c r="B119">
-        <v>1908.7900390625</v>
+        <v>117.3384857177734</v>
       </c>
       <c r="C119">
-        <v>65.676002502441406</v>
+        <v>47.42164993286133</v>
       </c>
       <c r="D119">
-        <v>39.509868621826172</v>
+        <v>84.22012329101562</v>
       </c>
       <c r="E119">
-        <v>107.64404296875</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.08971405029297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="2">
         <v>43636</v>
       </c>
       <c r="B120">
-        <v>1918.18994140625</v>
+        <v>118.6656951904297</v>
       </c>
       <c r="C120">
-        <v>66.423858642578125</v>
+        <v>49.60842895507812</v>
       </c>
       <c r="D120">
-        <v>39.303112030029297</v>
+        <v>87.32550048828125</v>
       </c>
       <c r="E120">
-        <v>108.331428527832</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.30725860595703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="2">
         <v>43637</v>
       </c>
       <c r="B121">
-        <v>1911.300048828125</v>
+        <v>119.2863311767578</v>
       </c>
       <c r="C121">
-        <v>65.598297119140625</v>
+        <v>50.28643035888672</v>
       </c>
       <c r="D121">
-        <v>39.431102752685547</v>
+        <v>87.08514404296875</v>
       </c>
       <c r="E121">
-        <v>109.126823425293</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.32660675048828</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="2">
         <v>43640</v>
       </c>
       <c r="B122">
-        <v>1913.900024414062</v>
+        <v>119.2672271728516</v>
       </c>
       <c r="C122">
-        <v>65.530319213867188</v>
+        <v>49.27420425415039</v>
       </c>
       <c r="D122">
-        <v>39.096359252929688</v>
+        <v>86.29678344726562</v>
       </c>
       <c r="E122">
-        <v>109.23484039306641</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.62816619873047</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="2">
         <v>43641</v>
       </c>
       <c r="B123">
-        <v>1878.27001953125</v>
+        <v>118.0546035766602</v>
       </c>
       <c r="C123">
-        <v>64.481369018554688</v>
+        <v>49.07367324829102</v>
       </c>
       <c r="D123">
-        <v>38.417022705078118</v>
+        <v>86.36408233642578</v>
       </c>
       <c r="E123">
-        <v>108.72422027587891</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.98635864257812</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="2">
         <v>43642</v>
       </c>
       <c r="B124">
-        <v>1897.829956054688</v>
+        <v>118.3315048217773</v>
       </c>
       <c r="C124">
-        <v>66.181045532226562</v>
+        <v>51.76656723022461</v>
       </c>
       <c r="D124">
-        <v>38.594242095947273</v>
+        <v>89.1810302734375</v>
       </c>
       <c r="E124">
-        <v>108.1743240356445</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.29782104492188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="2">
         <v>43643</v>
       </c>
       <c r="B125">
-        <v>1904.280029296875</v>
+        <v>117.5485458374023</v>
       </c>
       <c r="C125">
-        <v>66.501564025878906</v>
+        <v>51.91935348510742</v>
       </c>
       <c r="D125">
-        <v>38.682849884033203</v>
+        <v>88.20999908447266</v>
       </c>
       <c r="E125">
-        <v>108.1153945922852</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.56162261962891</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="2">
         <v>43644</v>
       </c>
       <c r="B126">
-        <v>1893.630004882812</v>
+        <v>118.818473815918</v>
       </c>
       <c r="C126">
-        <v>67.725341796875</v>
+        <v>53.36129379272461</v>
       </c>
       <c r="D126">
-        <v>38.889606475830078</v>
+        <v>89.93093872070312</v>
       </c>
       <c r="E126">
-        <v>108.4983596801758</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.32613372802734</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="2">
         <v>43647</v>
       </c>
       <c r="B127">
-        <v>1922.18994140625</v>
+        <v>119.2003936767578</v>
       </c>
       <c r="C127">
-        <v>70.34771728515625</v>
+        <v>52.63554763793945</v>
       </c>
       <c r="D127">
-        <v>39.273578643798828</v>
+        <v>90.43087005615234</v>
       </c>
       <c r="E127">
-        <v>108.6260223388672</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.26006317138672</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="2">
         <v>43648</v>
       </c>
       <c r="B128">
-        <v>1934.31005859375</v>
+        <v>117.3766708374023</v>
       </c>
       <c r="C128">
-        <v>69.580429077148438</v>
+        <v>52.0339469909668</v>
       </c>
       <c r="D128">
-        <v>39.460643768310547</v>
+        <v>92.02683258056641</v>
       </c>
       <c r="E128">
-        <v>109.5883483886719</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.46724700927734</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="2">
         <v>43649</v>
       </c>
       <c r="B129">
-        <v>1939</v>
+        <v>117.777702331543</v>
       </c>
       <c r="C129">
-        <v>69.90093994140625</v>
+        <v>51.87160491943359</v>
       </c>
       <c r="D129">
-        <v>39.283428192138672</v>
+        <v>93.27666473388672</v>
       </c>
       <c r="E129">
-        <v>110.2953720092773</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.14681243896484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="2">
         <v>43651</v>
       </c>
       <c r="B130">
-        <v>1942.910034179688</v>
+        <v>117.9591217041016</v>
       </c>
       <c r="C130">
-        <v>69.8232421875</v>
+        <v>52.39681625366211</v>
       </c>
       <c r="D130">
-        <v>39.184967041015618</v>
+        <v>93.06515502929688</v>
       </c>
       <c r="E130">
-        <v>109.9615097045898</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.85421752929688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="2">
         <v>43654</v>
       </c>
       <c r="B131">
-        <v>1952.319946289062</v>
+        <v>118.0164108276367</v>
       </c>
       <c r="C131">
-        <v>69.930076599121094</v>
+        <v>51.89070510864258</v>
       </c>
       <c r="D131">
-        <v>38.928985595703118</v>
+        <v>93.21897888183594</v>
       </c>
       <c r="E131">
-        <v>110.6881637573242</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.1845703125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="2">
         <v>43655</v>
       </c>
       <c r="B132">
-        <v>1988.300048828125</v>
+        <v>117.777702331543</v>
       </c>
       <c r="C132">
-        <v>69.794105529785156</v>
+        <v>52.17718124389648</v>
       </c>
       <c r="D132">
-        <v>39.322807312011719</v>
+        <v>93.94966125488281</v>
       </c>
       <c r="E132">
-        <v>110.8452835083008</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.13736724853516</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="2">
         <v>43656</v>
       </c>
       <c r="B133">
-        <v>2017.410034179688</v>
+        <v>119.7733001708984</v>
       </c>
       <c r="C133">
-        <v>69.862098693847656</v>
+        <v>52.50185775756836</v>
       </c>
       <c r="D133">
-        <v>39.3917236328125</v>
+        <v>94.32460784912109</v>
       </c>
       <c r="E133">
-        <v>110.9434814453125</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.15671539306641</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="2">
         <v>43657</v>
       </c>
       <c r="B134">
-        <v>2001.069946289062</v>
+        <v>119.7637481689453</v>
       </c>
       <c r="C134">
-        <v>71.629768371582031</v>
+        <v>52.94112014770508</v>
       </c>
       <c r="D134">
-        <v>38.988056182861328</v>
+        <v>95.74750518798828</v>
       </c>
       <c r="E134">
-        <v>111.8665390014648</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.21334838867188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="2">
         <v>43658</v>
       </c>
       <c r="B135">
-        <v>2011</v>
+        <v>120.2889022827148</v>
       </c>
       <c r="C135">
-        <v>72.620445251464844</v>
+        <v>52.97932052612305</v>
       </c>
       <c r="D135">
-        <v>39.440956115722663</v>
+        <v>96.45896148681641</v>
       </c>
       <c r="E135">
-        <v>112.53427886962891</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73.26998138427734</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="2">
         <v>43661</v>
       </c>
       <c r="B136">
-        <v>2020.989990234375</v>
+        <v>120.040641784668</v>
       </c>
       <c r="C136">
-        <v>73.329452514648438</v>
+        <v>52.35862350463867</v>
       </c>
       <c r="D136">
-        <v>39.647705078125</v>
+        <v>97.11273193359375</v>
       </c>
       <c r="E136">
-        <v>112.9074325561523</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72.75086212158203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="2">
         <v>43662</v>
       </c>
       <c r="B137">
-        <v>2009.900024414062</v>
+        <v>119.1240081787109</v>
       </c>
       <c r="C137">
-        <v>72.630157470703125</v>
+        <v>53.17030715942383</v>
       </c>
       <c r="D137">
-        <v>39.303112030029297</v>
+        <v>97.46844482421875</v>
       </c>
       <c r="E137">
-        <v>112.6913986206055</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.66545104980469</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="2">
         <v>43663</v>
       </c>
       <c r="B138">
-        <v>1992.030029296875</v>
+        <v>118.5320205688477</v>
       </c>
       <c r="C138">
-        <v>72.095970153808594</v>
+        <v>51.862060546875</v>
       </c>
       <c r="D138">
-        <v>38.426868438720703</v>
+        <v>96.90120697021484</v>
       </c>
       <c r="E138">
-        <v>112.53427886962891</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.24073028564453</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="2">
         <v>43664</v>
       </c>
       <c r="B139">
-        <v>1977.900024414062</v>
+        <v>119.0476226806641</v>
       </c>
       <c r="C139">
-        <v>71.717178344726562</v>
+        <v>52.8647346496582</v>
       </c>
       <c r="D139">
-        <v>39.155437469482422</v>
+        <v>97.98760223388672</v>
       </c>
       <c r="E139">
-        <v>112.65212249755859</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.63667297363281</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="2">
         <v>43665</v>
       </c>
       <c r="B140">
-        <v>1964.52001953125</v>
+        <v>119.391357421875</v>
       </c>
       <c r="C140">
-        <v>72.562171936035156</v>
+        <v>52.75014114379883</v>
       </c>
       <c r="D140">
-        <v>39.588630676269531</v>
+        <v>98.02606964111328</v>
       </c>
       <c r="E140">
-        <v>111.84690093994141</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.77824401855469</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="2">
         <v>43668</v>
       </c>
       <c r="B141">
-        <v>1985.630004882812</v>
+        <v>119.6491546630859</v>
       </c>
       <c r="C141">
-        <v>73.523704528808594</v>
+        <v>52.73104476928711</v>
       </c>
       <c r="D141">
-        <v>40.041519165039062</v>
+        <v>98.59330749511719</v>
       </c>
       <c r="E141">
-        <v>110.7863693237305</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.85374450683594</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="2">
         <v>43669</v>
       </c>
       <c r="B142">
-        <v>1994.489990234375</v>
+        <v>120.1361236572266</v>
       </c>
       <c r="C142">
-        <v>74.3104248046875</v>
+        <v>53.19895553588867</v>
       </c>
       <c r="D142">
-        <v>40.395957946777337</v>
+        <v>98.37217712402344</v>
       </c>
       <c r="E142">
-        <v>110.0695266723633</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.13690948486328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="2">
         <v>43670</v>
       </c>
       <c r="B143">
-        <v>2000.81005859375</v>
+        <v>120.8236083984375</v>
       </c>
       <c r="C143">
-        <v>75.621604919433594</v>
+        <v>55.02286148071289</v>
       </c>
       <c r="D143">
-        <v>40.395957946777337</v>
+        <v>98.46832275390625</v>
       </c>
       <c r="E143">
-        <v>109.9811477661133</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.12747192382812</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="2">
         <v>43671</v>
       </c>
       <c r="B144">
-        <v>1973.819946289062</v>
+        <v>119.954704284668</v>
       </c>
       <c r="C144">
-        <v>74.854324340820312</v>
+        <v>53.95334625244141</v>
       </c>
       <c r="D144">
-        <v>40.179363250732422</v>
+        <v>97.65111541748047</v>
       </c>
       <c r="E144">
-        <v>110.1971817016602</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.72161865234375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="2">
         <v>43672</v>
       </c>
       <c r="B145">
-        <v>1943.050048828125</v>
+        <v>118.1309967041016</v>
       </c>
       <c r="C145">
-        <v>75.5147705078125</v>
+        <v>54.27802276611328</v>
       </c>
       <c r="D145">
-        <v>40.592868804931641</v>
+        <v>98.37217712402344</v>
       </c>
       <c r="E145">
-        <v>110.9827575683594</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.60836029052734</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="2">
         <v>43675</v>
       </c>
       <c r="B146">
-        <v>1912.449951171875</v>
+        <v>118.6179580688477</v>
       </c>
       <c r="C146">
-        <v>75.36907958984375</v>
+        <v>53.6286735534668</v>
       </c>
       <c r="D146">
-        <v>40.927616119384773</v>
+        <v>98.84326934814453</v>
       </c>
       <c r="E146">
-        <v>110.24627685546881</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.10858917236328</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="2">
         <v>43676</v>
       </c>
       <c r="B147">
-        <v>1898.530029296875</v>
+        <v>118.7229843139648</v>
       </c>
       <c r="C147">
-        <v>74.786331176757812</v>
+        <v>54.47855758666992</v>
       </c>
       <c r="D147">
-        <v>40.740558624267578</v>
+        <v>99.61240386962891</v>
       </c>
       <c r="E147">
-        <v>110.0400695800781</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71.11802673339844</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="2">
         <v>43677</v>
       </c>
       <c r="B148">
-        <v>1866.780029296875</v>
+        <v>117.5485458374023</v>
       </c>
       <c r="C148">
-        <v>74.329849243164062</v>
+        <v>53.84830474853516</v>
       </c>
       <c r="D148">
-        <v>40.553489685058587</v>
+        <v>98.60291290283203</v>
       </c>
       <c r="E148">
-        <v>108.3903427124023</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.18362426757812</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="2">
         <v>43678</v>
       </c>
       <c r="B149">
-        <v>1855.319946289062</v>
+        <v>115.2856140136719</v>
       </c>
       <c r="C149">
-        <v>66.30731201171875</v>
+        <v>52.8647346496582</v>
       </c>
       <c r="D149">
-        <v>40.464874267578118</v>
+        <v>98.05490112304688</v>
       </c>
       <c r="E149">
-        <v>107.4083633422852</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.39035034179688</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="2">
         <v>43679</v>
       </c>
       <c r="B150">
-        <v>1823.239990234375</v>
+        <v>115.2760620117188</v>
       </c>
       <c r="C150">
-        <v>66.559837341308594</v>
+        <v>51.20315551757812</v>
       </c>
       <c r="D150">
-        <v>39.952915191650391</v>
+        <v>95.68020629882812</v>
       </c>
       <c r="E150">
-        <v>107.4280090332031</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.72022247314453</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="2">
         <v>43682</v>
       </c>
       <c r="B151">
-        <v>1765.130004882812</v>
+        <v>113.3759613037109</v>
       </c>
       <c r="C151">
-        <v>64.238548278808594</v>
+        <v>48.38612365722656</v>
       </c>
       <c r="D151">
-        <v>38.21026611328125</v>
+        <v>91.94990539550781</v>
       </c>
       <c r="E151">
-        <v>103.9125518798828</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.33277893066406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="2">
         <v>43683</v>
       </c>
       <c r="B152">
-        <v>1787.829956054688</v>
+        <v>113.9870452880859</v>
       </c>
       <c r="C152">
-        <v>65.753700256347656</v>
+        <v>47.35480499267578</v>
       </c>
       <c r="D152">
-        <v>39.076671600341797</v>
+        <v>93.65162658691406</v>
       </c>
       <c r="E152">
-        <v>105.33640289306641</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.97458648681641</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="2">
         <v>43684</v>
       </c>
       <c r="B153">
-        <v>1793.400024414062</v>
+        <v>113.7196960449219</v>
       </c>
       <c r="C153">
-        <v>65.763412475585938</v>
+        <v>45.96060943603516</v>
       </c>
       <c r="D153">
-        <v>39.106208801269531</v>
+        <v>93.57470703125</v>
       </c>
       <c r="E153">
-        <v>106.249641418457</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.54042053222656</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="2">
         <v>43685</v>
       </c>
       <c r="B154">
-        <v>1832.890014648438</v>
+        <v>117.6631317138672</v>
       </c>
       <c r="C154">
-        <v>66.928916931152344</v>
+        <v>47.28796005249023</v>
       </c>
       <c r="D154">
-        <v>40.612567901611328</v>
+        <v>96.82430267333984</v>
       </c>
       <c r="E154">
-        <v>107.0884246826172</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.31483459472656</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="2">
         <v>43686</v>
       </c>
       <c r="B155">
-        <v>1807.579956054688</v>
+        <v>116.8897171020508</v>
       </c>
       <c r="C155">
-        <v>65.423477172851562</v>
+        <v>46.20889663696289</v>
       </c>
       <c r="D155">
-        <v>39.687088012695312</v>
+        <v>96.56472015380859</v>
       </c>
       <c r="E155">
-        <v>105.8647766113281</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.861328125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="2">
         <v>43689</v>
       </c>
       <c r="B156">
-        <v>1784.920043945312</v>
+        <v>116.0590286254883</v>
       </c>
       <c r="C156">
-        <v>65.03497314453125</v>
+        <v>44.26084136962891</v>
       </c>
       <c r="D156">
-        <v>39.125896453857422</v>
+        <v>94.51689910888672</v>
       </c>
       <c r="E156">
-        <v>103.8319625854492</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.53643035888672</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="2">
         <v>43690</v>
       </c>
       <c r="B157">
-        <v>1824.339965820312</v>
+        <v>116.8610687255859</v>
       </c>
       <c r="C157">
-        <v>69.240493774414062</v>
+        <v>45.02478790283203</v>
       </c>
       <c r="D157">
-        <v>40.346733093261719</v>
+        <v>95.8917236328125</v>
       </c>
       <c r="E157">
-        <v>105.9930725097656</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.35822296142578</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="2">
         <v>43691</v>
       </c>
       <c r="B158">
-        <v>1762.9599609375</v>
+        <v>112.4211273193359</v>
       </c>
       <c r="C158">
-        <v>65.044685363769531</v>
+        <v>42.61837005615234</v>
       </c>
       <c r="D158">
-        <v>39.027439117431641</v>
+        <v>93.76699066162109</v>
       </c>
       <c r="E158">
-        <v>104.7990264892578</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.6444091796875</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="2">
         <v>43692</v>
       </c>
       <c r="B159">
-        <v>1776.119995117188</v>
+        <v>111.6668243408203</v>
       </c>
       <c r="C159">
-        <v>62.092082977294922</v>
+        <v>43.35366439819336</v>
       </c>
       <c r="D159">
-        <v>38.830532073974609</v>
+        <v>93.70930480957031</v>
       </c>
       <c r="E159">
-        <v>111.2034225463867</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.26217651367188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="2">
         <v>43693</v>
       </c>
       <c r="B160">
-        <v>1792.569946289062</v>
+        <v>111.7150573730469</v>
       </c>
       <c r="C160">
-        <v>63.597522735595703</v>
+        <v>44.13669967651367</v>
       </c>
       <c r="D160">
-        <v>39.401569366455078</v>
+        <v>95.01683807373047</v>
       </c>
       <c r="E160">
-        <v>111.49945068359381</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.26552581787109</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="2">
         <v>43696</v>
       </c>
       <c r="B161">
-        <v>1816.119995117188</v>
+        <v>113.1620178222656</v>
       </c>
       <c r="C161">
-        <v>64.3551025390625</v>
+        <v>45.65503692626953</v>
       </c>
       <c r="D161">
-        <v>39.765850067138672</v>
+        <v>95.8221435546875</v>
       </c>
       <c r="E161">
-        <v>112.3086395263672</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.36442565917969</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="2">
         <v>43697</v>
       </c>
       <c r="B162">
-        <v>1801.380004882812</v>
+        <v>112.0237350463867</v>
       </c>
       <c r="C162">
-        <v>64.141426086425781</v>
+        <v>45.11428451538086</v>
       </c>
       <c r="D162">
-        <v>39.411415100097663</v>
+        <v>95.74451446533203</v>
       </c>
       <c r="E162">
-        <v>110.5718612670898</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.96308898925781</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="2">
         <v>43698</v>
       </c>
       <c r="B163">
-        <v>1823.5400390625</v>
+        <v>113.7118530273438</v>
       </c>
       <c r="C163">
-        <v>65.909103393554688</v>
+        <v>45.60675430297852</v>
       </c>
       <c r="D163">
-        <v>39.756004333496087</v>
+        <v>96.34607696533203</v>
       </c>
       <c r="E163">
-        <v>110.54225158691411</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.6224365234375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="2">
         <v>43699</v>
       </c>
       <c r="B164">
-        <v>1804.660034179688</v>
+        <v>113.5671768188477</v>
       </c>
       <c r="C164">
-        <v>66.82208251953125</v>
+        <v>45.2784423828125</v>
       </c>
       <c r="D164">
-        <v>39.381877899169922</v>
+        <v>95.53106689453125</v>
       </c>
       <c r="E164">
-        <v>110.433708190918</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.47909545898438</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="2">
         <v>43700</v>
       </c>
       <c r="B165">
-        <v>1749.619995117188</v>
+        <v>111.1073303222656</v>
       </c>
       <c r="C165">
-        <v>64.306533813476562</v>
+        <v>44.18727874755859</v>
       </c>
       <c r="D165">
-        <v>38.101966857910163</v>
+        <v>92.34864044189453</v>
       </c>
       <c r="E165">
-        <v>109.3679504394531</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.49150848388672</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="2">
         <v>43703</v>
       </c>
       <c r="B166">
-        <v>1768.869995117188</v>
+        <v>111.6475219726562</v>
       </c>
       <c r="C166">
-        <v>65.705146789550781</v>
+        <v>44.45765686035156</v>
       </c>
       <c r="D166">
-        <v>38.791149139404297</v>
+        <v>93.44501495361328</v>
       </c>
       <c r="E166">
-        <v>110.5126419067383</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.83551788330078</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="2">
         <v>43704</v>
       </c>
       <c r="B167">
-        <v>1761.829956054688</v>
+        <v>111.7343521118164</v>
       </c>
       <c r="C167">
-        <v>65.870246887207031</v>
+        <v>43.77205657958984</v>
       </c>
       <c r="D167">
-        <v>38.397335052490227</v>
+        <v>91.70826721191406</v>
       </c>
       <c r="E167">
-        <v>110.9369812011719</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.20484161376953</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="2">
         <v>43705</v>
       </c>
       <c r="B168">
-        <v>1764.25</v>
+        <v>112.6989898681641</v>
       </c>
       <c r="C168">
-        <v>67.016326904296875</v>
+        <v>44.73768997192383</v>
       </c>
       <c r="D168">
-        <v>39.470485687255859</v>
+        <v>93.30918121337891</v>
       </c>
       <c r="E168">
-        <v>111.23301696777339</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.67306518554688</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="2">
         <v>43706</v>
       </c>
       <c r="B169">
-        <v>1786.400024414062</v>
+        <v>113.3645858764648</v>
       </c>
       <c r="C169">
-        <v>61.664730072021477</v>
+        <v>46.89104461669922</v>
       </c>
       <c r="D169">
-        <v>39.903690338134773</v>
+        <v>95.20117950439453</v>
       </c>
       <c r="E169">
-        <v>112.575080871582</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.38974761962891</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="2">
         <v>43707</v>
       </c>
       <c r="B170">
-        <v>1776.2900390625</v>
+        <v>113.5575180053711</v>
       </c>
       <c r="C170">
-        <v>61.820133209228523</v>
+        <v>47.51870346069336</v>
       </c>
       <c r="D170">
-        <v>39.804889678955078</v>
+        <v>95.69599914550781</v>
       </c>
       <c r="E170">
-        <v>112.75270843505859</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.43753051757812</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="2">
         <v>43711</v>
       </c>
       <c r="B171">
-        <v>1789.839965820312</v>
+        <v>112.1587829589844</v>
       </c>
       <c r="C171">
-        <v>61.392780303955078</v>
+        <v>47.93392562866211</v>
       </c>
       <c r="D171">
-        <v>39.261512756347663</v>
+        <v>96.51100921630859</v>
       </c>
       <c r="E171">
-        <v>113.1276931762695</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.51396942138672</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="2">
         <v>43712</v>
       </c>
       <c r="B172">
-        <v>1800.619995117188</v>
+        <v>113.1041412353516</v>
       </c>
       <c r="C172">
-        <v>62.092082977294922</v>
+        <v>48.91886901855469</v>
       </c>
       <c r="D172">
-        <v>39.162715911865227</v>
+        <v>96.72447967529297</v>
       </c>
       <c r="E172">
-        <v>114.3809432983398</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.21154022216797</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="2">
         <v>43713</v>
       </c>
       <c r="B173">
-        <v>1840.719970703125</v>
+        <v>113.480354309082</v>
       </c>
       <c r="C173">
-        <v>63.869476318359382</v>
+        <v>50.67631530761719</v>
       </c>
       <c r="D173">
-        <v>40.308750152587891</v>
+        <v>96.83120727539062</v>
       </c>
       <c r="E173">
-        <v>113.91713714599609</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.14799499511719</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="2">
         <v>43714</v>
       </c>
       <c r="B174">
-        <v>1833.510009765625</v>
+        <v>114.0784301757812</v>
       </c>
       <c r="C174">
-        <v>64.442512512207031</v>
+        <v>50.66666412353516</v>
       </c>
       <c r="D174">
-        <v>39.883926391601562</v>
+        <v>97.90818786621094</v>
       </c>
       <c r="E174">
-        <v>113.2165069580078</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.77867126464844</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="2">
         <v>43717</v>
       </c>
       <c r="B175">
-        <v>1831.349975585938</v>
+        <v>115.1684646606445</v>
       </c>
       <c r="C175">
-        <v>67.230003356933594</v>
+        <v>51.7385139465332</v>
       </c>
       <c r="D175">
-        <v>40.901527404785163</v>
+        <v>99.13069152832031</v>
       </c>
       <c r="E175">
-        <v>114.79539489746089</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.31378936767578</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="2">
         <v>43718</v>
       </c>
       <c r="B176">
-        <v>1820.550048828125</v>
+        <v>117.5414886474609</v>
       </c>
       <c r="C176">
-        <v>67.035751342773438</v>
+        <v>52.60758209228516</v>
       </c>
       <c r="D176">
-        <v>39.785133361816413</v>
+        <v>99.89720153808594</v>
       </c>
       <c r="E176">
-        <v>114.5190887451172</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.86802673339844</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="2">
         <v>43719</v>
       </c>
       <c r="B177">
-        <v>1822.989990234375</v>
+        <v>116.9916381835938</v>
       </c>
       <c r="C177">
-        <v>65.889671325683594</v>
+        <v>52.25029754638672</v>
       </c>
       <c r="D177">
-        <v>39.419589996337891</v>
+        <v>99.42177581787109</v>
       </c>
       <c r="E177">
-        <v>114.48947906494141</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.73424530029297</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="2">
         <v>43720</v>
       </c>
       <c r="B178">
-        <v>1843.550048828125</v>
+        <v>117.1266860961914</v>
       </c>
       <c r="C178">
-        <v>65.909103393554688</v>
+        <v>51.36191558837891</v>
       </c>
       <c r="D178">
-        <v>39.804889678955078</v>
+        <v>99.15010070800781</v>
       </c>
       <c r="E178">
-        <v>115.3776092529297</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.78202056884766</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="2">
         <v>43721</v>
       </c>
       <c r="B179">
-        <v>1839.339965820312</v>
+        <v>117.2038650512695</v>
       </c>
       <c r="C179">
-        <v>65.598297119140625</v>
+        <v>51.45848083496094</v>
       </c>
       <c r="D179">
-        <v>39.883926391601562</v>
+        <v>99.71284484863281</v>
       </c>
       <c r="E179">
-        <v>115.8808898925781</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.41269683837891</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="2">
         <v>43724</v>
       </c>
       <c r="B180">
-        <v>1807.839965820312</v>
+        <v>119.7312240600586</v>
       </c>
       <c r="C180">
-        <v>66.928916931152344</v>
+        <v>50.60872268676758</v>
       </c>
       <c r="D180">
-        <v>39.814769744873047</v>
+        <v>100.9353637695312</v>
       </c>
       <c r="E180">
-        <v>114.0454177856445</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70.45427703857422</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="2">
         <v>43725</v>
       </c>
       <c r="B181">
-        <v>1822.550048828125</v>
+        <v>119.5093536376953</v>
       </c>
       <c r="C181">
-        <v>66.452995300292969</v>
+        <v>51.5743522644043</v>
       </c>
       <c r="D181">
-        <v>40.042003631591797</v>
+        <v>99.15979766845703</v>
       </c>
       <c r="E181">
-        <v>114.973030090332</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.91915130615234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="2">
         <v>43726</v>
       </c>
       <c r="B182">
-        <v>1817.4599609375</v>
+        <v>119.7890930175781</v>
       </c>
       <c r="C182">
-        <v>65.699638366699219</v>
+        <v>51.91232299804688</v>
       </c>
       <c r="D182">
-        <v>39.874050140380859</v>
+        <v>99.92630767822266</v>
       </c>
       <c r="E182">
-        <v>115.6144561767578</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.58470153808594</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="2">
         <v>43727</v>
       </c>
       <c r="B183">
-        <v>1821.5</v>
+        <v>119.2874908447266</v>
       </c>
       <c r="C183">
-        <v>66.130119323730469</v>
+        <v>52.06682586669922</v>
       </c>
       <c r="D183">
-        <v>39.913566589355469</v>
+        <v>100.0136337280273</v>
       </c>
       <c r="E183">
-        <v>115.5651092529297</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.11647033691406</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="2">
         <v>43728</v>
       </c>
       <c r="B184">
-        <v>1794.160034179688</v>
+        <v>119.9241409301758</v>
       </c>
       <c r="C184">
-        <v>65.327835083007812</v>
+        <v>53.20626831054688</v>
       </c>
       <c r="D184">
-        <v>39.874050140380859</v>
+        <v>100.1979751586914</v>
       </c>
       <c r="E184">
-        <v>115.43682861328119</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.87757873535156</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="2">
         <v>43731</v>
       </c>
       <c r="B185">
-        <v>1785.300048828125</v>
+        <v>120.483642578125</v>
       </c>
       <c r="C185">
-        <v>65.954017639160156</v>
+        <v>53.86289596557617</v>
       </c>
       <c r="D185">
-        <v>39.755496978759773</v>
+        <v>101.1585235595703</v>
       </c>
       <c r="E185">
-        <v>116.06838226318359</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.92535400390625</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="2">
         <v>43732</v>
       </c>
       <c r="B186">
-        <v>1741.609985351562</v>
+        <v>119.3646545410156</v>
       </c>
       <c r="C186">
-        <v>66.247535705566406</v>
+        <v>53.57321166992188</v>
       </c>
       <c r="D186">
-        <v>39.083683013916023</v>
+        <v>100.5375595092773</v>
       </c>
       <c r="E186">
-        <v>116.8380889892578</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.97934722900391</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="2">
         <v>43733</v>
       </c>
       <c r="B187">
-        <v>1768.329956054688</v>
+        <v>119.1427917480469</v>
       </c>
       <c r="C187">
-        <v>65.973587036132812</v>
+        <v>58.08271026611328</v>
       </c>
       <c r="D187">
-        <v>38.767532348632812</v>
+        <v>101.9347305297852</v>
       </c>
       <c r="E187">
-        <v>116.9071731567383</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.18000793457031</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="2">
         <v>43734</v>
       </c>
       <c r="B188">
-        <v>1739.839965820312</v>
+        <v>115.911247253418</v>
       </c>
       <c r="C188">
-        <v>65.51373291015625</v>
+        <v>58.74899673461914</v>
       </c>
       <c r="D188">
-        <v>38.451385498046882</v>
+        <v>101.4496002197266</v>
       </c>
       <c r="E188">
-        <v>116.7394104003906</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.81690216064453</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="2">
         <v>43735</v>
       </c>
       <c r="B189">
-        <v>1725.449951171875</v>
+        <v>114.4064025878906</v>
       </c>
       <c r="C189">
-        <v>66.795440673828125</v>
+        <v>60.27468872070312</v>
       </c>
       <c r="D189">
-        <v>37.908008575439453</v>
+        <v>100.5763854980469</v>
       </c>
       <c r="E189">
-        <v>116.88743591308589</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.30424499511719</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="2">
         <v>43738</v>
       </c>
       <c r="B190">
-        <v>1735.910034179688</v>
+        <v>114.4064025878906</v>
       </c>
       <c r="C190">
-        <v>67.499885559082031</v>
+        <v>58.66208648681641</v>
       </c>
       <c r="D190">
-        <v>38.510662078857422</v>
+        <v>99.35385131835938</v>
       </c>
       <c r="E190">
-        <v>117.11439514160161</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.47289276123047</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="2">
         <v>43739</v>
       </c>
       <c r="B191">
-        <v>1735.650024414062</v>
+        <v>111.9079818725586</v>
       </c>
       <c r="C191">
-        <v>66.541061401367188</v>
+        <v>58.30480575561523</v>
       </c>
       <c r="D191">
-        <v>38.075962066650391</v>
+        <v>98.02461242675781</v>
       </c>
       <c r="E191">
-        <v>116.29534912109381</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.88664245605469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="2">
         <v>43740</v>
       </c>
       <c r="B192">
-        <v>1713.22998046875</v>
+        <v>108.3195190429688</v>
       </c>
       <c r="C192">
-        <v>63.615638732910163</v>
+        <v>57.16535949707031</v>
       </c>
       <c r="D192">
-        <v>37.710418701171882</v>
+        <v>95.31760406494141</v>
       </c>
       <c r="E192">
-        <v>114.5881729125977</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.16661071777344</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="2">
         <v>43741</v>
       </c>
       <c r="B193">
-        <v>1724.420043945312</v>
+        <v>109.1491165161133</v>
       </c>
       <c r="C193">
-        <v>64.2418212890625</v>
+        <v>57.9378662109375</v>
       </c>
       <c r="D193">
-        <v>37.493068695068359</v>
+        <v>95.92887115478516</v>
       </c>
       <c r="E193">
-        <v>114.77565765380859</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.95973968505859</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="2">
         <v>43742</v>
       </c>
       <c r="B194">
-        <v>1739.650024414062</v>
+        <v>109.8243637084961</v>
       </c>
       <c r="C194">
-        <v>65.44525146484375</v>
+        <v>58.65243530273438</v>
       </c>
       <c r="D194">
-        <v>37.848731994628913</v>
+        <v>97.85966491699219</v>
       </c>
       <c r="E194">
-        <v>116.60125732421881</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.90575408935547</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="2">
         <v>43745</v>
       </c>
       <c r="B195">
-        <v>1732.660034179688</v>
+        <v>109.2552261352539</v>
       </c>
       <c r="C195">
-        <v>65.376754760742188</v>
+        <v>58.32411956787109</v>
       </c>
       <c r="D195">
-        <v>37.364627838134773</v>
+        <v>98.34478759765625</v>
       </c>
       <c r="E195">
-        <v>115.68353271484381</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.99796295166016</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="2">
         <v>43746</v>
       </c>
       <c r="B196">
-        <v>1705.510009765625</v>
+        <v>107.7600250244141</v>
       </c>
       <c r="C196">
-        <v>63.870021820068359</v>
+        <v>57.7640495300293</v>
       </c>
       <c r="D196">
-        <v>36.870651245117188</v>
+        <v>97.82086181640625</v>
       </c>
       <c r="E196">
-        <v>116.02891540527339</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63.73659896850586</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="2">
         <v>43747</v>
       </c>
       <c r="B197">
-        <v>1721.989990234375</v>
+        <v>109.1394653320312</v>
       </c>
       <c r="C197">
-        <v>64.280952453613281</v>
+        <v>58.47861862182617</v>
       </c>
       <c r="D197">
-        <v>37.394268035888672</v>
+        <v>99.65464019775391</v>
       </c>
       <c r="E197">
-        <v>117.36110687255859</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.44373321533203</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="2">
         <v>43748</v>
       </c>
       <c r="B198">
-        <v>1720.260009765625</v>
+        <v>110.5381851196289</v>
       </c>
       <c r="C198">
-        <v>65.288703918457031</v>
+        <v>59.80152893066406</v>
       </c>
       <c r="D198">
-        <v>37.473308563232422</v>
+        <v>103.4289169311523</v>
       </c>
       <c r="E198">
-        <v>118.0321350097656</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.21775054931641</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="2">
         <v>43749</v>
       </c>
       <c r="B199">
-        <v>1731.920043945312</v>
+        <v>112.0430297851562</v>
       </c>
       <c r="C199">
-        <v>68.028228759765625</v>
+        <v>61.24032211303711</v>
       </c>
       <c r="D199">
-        <v>38.085842132568359</v>
+        <v>103.3610000610352</v>
       </c>
       <c r="E199">
-        <v>118.6538162231445</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.91532135009766</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="2">
         <v>43752</v>
       </c>
       <c r="B200">
-        <v>1736.430053710938</v>
+        <v>112.0719757080078</v>
       </c>
       <c r="C200">
-        <v>67.235725402832031</v>
+        <v>60.96994400024414</v>
       </c>
       <c r="D200">
-        <v>37.898128509521477</v>
+        <v>103.4774322509766</v>
       </c>
       <c r="E200">
-        <v>117.5979309082031</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.10643005371094</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="2">
         <v>43753</v>
       </c>
       <c r="B201">
-        <v>1767.380004882812</v>
+        <v>112.1973724365234</v>
       </c>
       <c r="C201">
-        <v>66.472572326660156</v>
+        <v>61.84867095947266</v>
       </c>
       <c r="D201">
-        <v>38.411869049072273</v>
+        <v>104.1080932617188</v>
       </c>
       <c r="E201">
-        <v>117.9531784057617</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.33575439453125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="2">
         <v>43754</v>
       </c>
       <c r="B202">
-        <v>1777.430053710938</v>
+        <v>111.0398101806641</v>
       </c>
       <c r="C202">
-        <v>66.932418823242188</v>
+        <v>60.5354118347168</v>
       </c>
       <c r="D202">
-        <v>38.451385498046882</v>
+        <v>103.0990295410156</v>
       </c>
       <c r="E202">
-        <v>117.8446350097656</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.19863891601562</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="2">
         <v>43755</v>
       </c>
       <c r="B203">
-        <v>1787.47998046875</v>
+        <v>111.2713088989258</v>
       </c>
       <c r="C203">
-        <v>68.37066650390625</v>
+        <v>61.89694976806641</v>
       </c>
       <c r="D203">
-        <v>38.619342803955078</v>
+        <v>104.0207672119141</v>
       </c>
       <c r="E203">
-        <v>118.25909423828119</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.11263275146484</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="2">
         <v>43756</v>
       </c>
       <c r="B204">
-        <v>1757.510009765625</v>
+        <v>110.6828918457031</v>
       </c>
       <c r="C204">
-        <v>68.996849060058594</v>
+        <v>62.90120697021484</v>
       </c>
       <c r="D204">
-        <v>38.352588653564453</v>
+        <v>104.0110626220703</v>
       </c>
       <c r="E204">
-        <v>117.5683288574219</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.60617828369141</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="2">
         <v>43759</v>
       </c>
       <c r="B205">
-        <v>1785.660034179688</v>
+        <v>112.4867706298828</v>
       </c>
       <c r="C205">
-        <v>69.926322937011719</v>
+        <v>62.44736099243164</v>
       </c>
       <c r="D205">
-        <v>38.78729248046875</v>
+        <v>104.981315612793</v>
       </c>
       <c r="E205">
-        <v>118.1604080200195</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.68597412109375</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="2">
         <v>43760</v>
       </c>
       <c r="B206">
-        <v>1765.72998046875</v>
+        <v>113.6346969604492</v>
       </c>
       <c r="C206">
-        <v>70.836235046386719</v>
+        <v>62.93983459472656</v>
       </c>
       <c r="D206">
-        <v>38.471145629882812</v>
+        <v>105.5343627929688</v>
       </c>
       <c r="E206">
-        <v>118.0025253295898</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.02042388916016</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="2">
         <v>43761</v>
       </c>
       <c r="B207">
-        <v>1762.170043945312</v>
+        <v>113.8083343505859</v>
       </c>
       <c r="C207">
-        <v>70.513374328613281</v>
+        <v>63.60611724853516</v>
       </c>
       <c r="D207">
-        <v>38.728015899658203</v>
+        <v>105.7575225830078</v>
       </c>
       <c r="E207">
-        <v>117.7755584716797</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.65110015869141</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="2">
         <v>43762</v>
       </c>
       <c r="B208">
-        <v>1780.780029296875</v>
+        <v>113.4224700927734</v>
       </c>
       <c r="C208">
-        <v>70.562294006347656</v>
+        <v>64.06962585449219</v>
       </c>
       <c r="D208">
-        <v>35.191120147705078</v>
+        <v>107.3390350341797</v>
       </c>
       <c r="E208">
-        <v>117.5288543701172</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.02042388916016</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="2">
         <v>43763</v>
       </c>
       <c r="B209">
-        <v>1761.329956054688</v>
+        <v>114.4739303588867</v>
       </c>
       <c r="C209">
-        <v>71.570037841796875</v>
+        <v>65.67256927490234</v>
       </c>
       <c r="D209">
-        <v>35.408473968505859</v>
+        <v>111.0162887573242</v>
       </c>
       <c r="E209">
-        <v>117.4696426391602</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.17331695556641</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="2">
         <v>43766</v>
       </c>
       <c r="B210">
-        <v>1777.079956054688</v>
+        <v>114.2906494140625</v>
       </c>
       <c r="C210">
-        <v>72.763694763183594</v>
+        <v>65.25735473632812</v>
       </c>
       <c r="D210">
-        <v>35.507266998291023</v>
+        <v>113.7621078491211</v>
       </c>
       <c r="E210">
-        <v>117.64727783203119</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.59040832519531</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="2">
         <v>43767</v>
       </c>
       <c r="B211">
-        <v>1762.7099609375</v>
+        <v>113.9530181884766</v>
       </c>
       <c r="C211">
-        <v>72.303840637207031</v>
+        <v>65.68222045898438</v>
       </c>
       <c r="D211">
-        <v>35.675224304199219</v>
+        <v>115.4212417602539</v>
       </c>
       <c r="E211">
-        <v>115.6045837402344</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.39929962158203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="2">
         <v>43768</v>
       </c>
       <c r="B212">
-        <v>1779.989990234375</v>
+        <v>112.2456130981445</v>
       </c>
       <c r="C212">
-        <v>71.1297607421875</v>
+        <v>63.91512680053711</v>
       </c>
       <c r="D212">
-        <v>35.428230285644531</v>
+        <v>112.9858932495117</v>
       </c>
       <c r="E212">
-        <v>116.5420455932617</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.71129608154297</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="2">
         <v>43769</v>
       </c>
       <c r="B213">
-        <v>1776.660034179688</v>
+        <v>112.0333862304688</v>
       </c>
       <c r="C213">
-        <v>70.278549194335938</v>
+        <v>61.75210952758789</v>
       </c>
       <c r="D213">
-        <v>34.825576782226562</v>
+        <v>113.3448944091797</v>
       </c>
       <c r="E213">
-        <v>115.713134765625</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64.56795501708984</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="2">
         <v>43770</v>
       </c>
       <c r="B214">
-        <v>1791.43994140625</v>
+        <v>112.1009063720703</v>
       </c>
       <c r="C214">
-        <v>71.345008850097656</v>
+        <v>64.18550109863281</v>
       </c>
       <c r="D214">
-        <v>34.825576782226562</v>
+        <v>114.8778991699219</v>
       </c>
       <c r="E214">
-        <v>116.06838226318359</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.50775909423828</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="2">
         <v>43773</v>
       </c>
       <c r="B215">
-        <v>1804.660034179688</v>
+        <v>117.2713928222656</v>
       </c>
       <c r="C215">
-        <v>73.194183349609375</v>
+        <v>65.60498046875</v>
       </c>
       <c r="D215">
-        <v>34.983646392822273</v>
+        <v>115.0137252807617</v>
       </c>
       <c r="E215">
-        <v>116.01904296875</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.48579406738281</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="2">
         <v>43774</v>
       </c>
       <c r="B216">
-        <v>1801.7099609375</v>
+        <v>117.628303527832</v>
       </c>
       <c r="C216">
-        <v>73.223541259765625</v>
+        <v>64.15653991699219</v>
       </c>
       <c r="D216">
-        <v>35.052803039550781</v>
+        <v>115.3824310302734</v>
       </c>
       <c r="E216">
-        <v>117.2920303344727</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.84270477294922</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="2">
         <v>43775</v>
       </c>
       <c r="B217">
-        <v>1795.77001953125</v>
+        <v>115.6604461669922</v>
       </c>
       <c r="C217">
-        <v>73.429000854492188</v>
+        <v>62.07076263427734</v>
       </c>
       <c r="D217">
-        <v>35.072566986083977</v>
+        <v>114.8973007202148</v>
       </c>
       <c r="E217">
-        <v>117.9235763549805</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.31378936767578</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="2">
         <v>43776</v>
       </c>
       <c r="B218">
-        <v>1788.199951171875</v>
+        <v>117.5800704956055</v>
       </c>
       <c r="C218">
-        <v>74.368263244628906</v>
+        <v>63.97305679321289</v>
       </c>
       <c r="D218">
-        <v>34.469905853271477</v>
+        <v>116.0130920410156</v>
       </c>
       <c r="E218">
-        <v>118.6439514160156</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69.76626586914062</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="2">
         <v>43777</v>
       </c>
       <c r="B219">
-        <v>1785.880004882812</v>
+        <v>116.6540222167969</v>
       </c>
       <c r="C219">
-        <v>75.19012451171875</v>
+        <v>63.95375061035156</v>
       </c>
       <c r="D219">
-        <v>34.716899871826172</v>
+        <v>116.1392211914062</v>
       </c>
       <c r="E219">
-        <v>117.8643798828125</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.44133758544922</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="2">
         <v>43780</v>
       </c>
       <c r="B220">
-        <v>1771.650024414062</v>
+        <v>116.5382614135742</v>
       </c>
       <c r="C220">
-        <v>74.60308837890625</v>
+        <v>63.45161437988281</v>
       </c>
       <c r="D220">
-        <v>34.825576782226562</v>
+        <v>114.8876037597656</v>
       </c>
       <c r="E220">
-        <v>117.4696426391602</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.02548980712891</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="2">
         <v>43781</v>
       </c>
       <c r="B221">
-        <v>1778</v>
+        <v>116.6829528808594</v>
       </c>
       <c r="C221">
-        <v>73.56597900390625</v>
+        <v>62.66945648193359</v>
       </c>
       <c r="D221">
-        <v>34.647739410400391</v>
+        <v>114.5868225097656</v>
       </c>
       <c r="E221">
-        <v>117.54859924316411</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.08740997314453</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="2">
         <v>43782</v>
       </c>
       <c r="B222">
-        <v>1753.109985351562</v>
+        <v>117.9562835693359</v>
       </c>
       <c r="C222">
-        <v>73.399642944335938</v>
+        <v>62.04179763793945</v>
       </c>
       <c r="D222">
-        <v>34.222915649414062</v>
+        <v>114.9070053100586</v>
       </c>
       <c r="E222">
-        <v>119.38405609130859</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.53617095947266</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="2">
         <v>43783</v>
       </c>
       <c r="B223">
-        <v>1754.599975585938</v>
+        <v>117.6475982666016</v>
       </c>
       <c r="C223">
-        <v>73.967117309570312</v>
+        <v>62.23492050170898</v>
       </c>
       <c r="D223">
-        <v>34.539066314697273</v>
+        <v>115.886962890625</v>
       </c>
       <c r="E223">
-        <v>119.05841064453119</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.24603271484375</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="2">
         <v>43784</v>
       </c>
       <c r="B224">
-        <v>1739.489990234375</v>
+        <v>117.5209579467773</v>
       </c>
       <c r="C224">
-        <v>75.424934387207031</v>
+        <v>62.4666748046875</v>
       </c>
       <c r="D224">
-        <v>34.845333099365227</v>
+        <v>115.7109832763672</v>
       </c>
       <c r="E224">
-        <v>117.30189514160161</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.913330078125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="2">
         <v>43787</v>
       </c>
       <c r="B225">
-        <v>1752.530029296875</v>
+        <v>115.484992980957</v>
       </c>
       <c r="C225">
-        <v>75.620620727539062</v>
+        <v>62.32183074951172</v>
       </c>
       <c r="D225">
-        <v>34.677379608154297</v>
+        <v>115.994499206543</v>
       </c>
       <c r="E225">
-        <v>118.663688659668</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.26537322998047</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="2">
         <v>43788</v>
       </c>
       <c r="B226">
-        <v>1752.7900390625</v>
+        <v>113.4392852783203</v>
       </c>
       <c r="C226">
-        <v>73.732307434082031</v>
+        <v>60.21879577636719</v>
       </c>
       <c r="D226">
-        <v>34.637863159179688</v>
+        <v>114.7920227050781</v>
       </c>
       <c r="E226">
-        <v>118.3084411621094</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.58841705322266</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="2">
         <v>43789</v>
       </c>
       <c r="B227">
-        <v>1745.530029296875</v>
+        <v>114.306266784668</v>
       </c>
       <c r="C227">
-        <v>72.548439025878906</v>
+        <v>60.17011642456055</v>
       </c>
       <c r="D227">
-        <v>34.440269470214837</v>
+        <v>113.4624633789062</v>
       </c>
       <c r="E227">
-        <v>117.558464050293</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.79149627685547</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="2">
         <v>43790</v>
       </c>
       <c r="B228">
-        <v>1734.7099609375</v>
+        <v>115.6993026733398</v>
       </c>
       <c r="C228">
-        <v>70.650344848632812</v>
+        <v>61.57213973999023</v>
       </c>
       <c r="D228">
-        <v>34.519306182861328</v>
+        <v>115.7207717895508</v>
       </c>
       <c r="E228">
-        <v>118.27883148193359</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.37754058837891</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="2">
         <v>43791</v>
       </c>
       <c r="B229">
-        <v>1745.719970703125</v>
+        <v>115.5629196166992</v>
       </c>
       <c r="C229">
-        <v>71.071052551269531</v>
+        <v>60.71534729003906</v>
       </c>
       <c r="D229">
-        <v>34.697139739990227</v>
+        <v>114.0197067260742</v>
       </c>
       <c r="E229">
-        <v>117.7854309082031</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.08740997314453</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="2">
         <v>43794</v>
       </c>
       <c r="B230">
-        <v>1773.839965820312</v>
+        <v>115.3193817138672</v>
       </c>
       <c r="C230">
-        <v>72.646286010742188</v>
+        <v>60.78350067138672</v>
       </c>
       <c r="D230">
-        <v>35.418350219726562</v>
+        <v>112.836784362793</v>
       </c>
       <c r="E230">
-        <v>117.35121917724609</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.64254760742188</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="2">
         <v>43795</v>
       </c>
       <c r="B231">
-        <v>1796.93994140625</v>
+        <v>114.7446441650391</v>
       </c>
       <c r="C231">
-        <v>79.808174133300781</v>
+        <v>60.04354095458984</v>
       </c>
       <c r="D231">
-        <v>35.319557189941413</v>
+        <v>111.7711868286133</v>
       </c>
       <c r="E231">
-        <v>117.6176681518555</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.47813415527344</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="2">
         <v>43796</v>
       </c>
       <c r="B232">
-        <v>1818.510009765625</v>
+        <v>115.0174026489258</v>
       </c>
       <c r="C232">
-        <v>78.996101379394531</v>
+        <v>59.84881973266602</v>
       </c>
       <c r="D232">
-        <v>35.418350219726562</v>
+        <v>112.1231307983398</v>
       </c>
       <c r="E232">
-        <v>117.19334411621089</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.439453125</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="2">
         <v>43798</v>
       </c>
       <c r="B233">
-        <v>1800.800048828125</v>
+        <v>114.1016998291016</v>
       </c>
       <c r="C233">
-        <v>78.898269653320312</v>
+        <v>59.04070663452148</v>
       </c>
       <c r="D233">
-        <v>35.229900360107422</v>
+        <v>112.152458190918</v>
       </c>
       <c r="E233">
-        <v>117.5189895629883</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.88820648193359</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="2">
         <v>43801</v>
       </c>
       <c r="B234">
-        <v>1781.599975585938</v>
+        <v>113.7802429199219</v>
       </c>
       <c r="C234">
-        <v>77.489364624023438</v>
+        <v>59.26464462280273</v>
       </c>
       <c r="D234">
-        <v>34.614967346191413</v>
+        <v>111.7711868286133</v>
       </c>
       <c r="E234">
-        <v>117.7064895629883</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.16866302490234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="2">
         <v>43802</v>
       </c>
       <c r="B235">
-        <v>1769.9599609375</v>
+        <v>112.8937606811523</v>
       </c>
       <c r="C235">
-        <v>76.422904968261719</v>
+        <v>58.44679260253906</v>
       </c>
       <c r="D235">
-        <v>34.466194152832031</v>
+        <v>110.2265472412109</v>
       </c>
       <c r="E235">
-        <v>117.1045303344727</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65.64643096923828</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="2">
         <v>43803</v>
       </c>
       <c r="B236">
-        <v>1760.68994140625</v>
+        <v>113.916618347168</v>
       </c>
       <c r="C236">
-        <v>77.469802856445312</v>
+        <v>58.44679260253906</v>
       </c>
       <c r="D236">
-        <v>34.684394836425781</v>
+        <v>110.0505752563477</v>
       </c>
       <c r="E236">
-        <v>117.124267578125</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.39110565185547</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="2">
         <v>43804</v>
       </c>
       <c r="B237">
-        <v>1740.47998046875</v>
+        <v>113.3223876953125</v>
       </c>
       <c r="C237">
-        <v>78.585174560546875</v>
+        <v>58.27154159545898</v>
       </c>
       <c r="D237">
-        <v>34.505867004394531</v>
+        <v>110.0212478637695</v>
       </c>
       <c r="E237">
-        <v>117.61988830566411</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.15899658203125</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="2">
         <v>43805</v>
       </c>
       <c r="B238">
-        <v>1751.599975585938</v>
+        <v>114.9589538574219</v>
       </c>
       <c r="C238">
-        <v>80.277816772460938</v>
+        <v>58.61231231689453</v>
       </c>
       <c r="D238">
-        <v>34.575294494628913</v>
+        <v>111.0184173583984</v>
       </c>
       <c r="E238">
-        <v>118.7300643920898</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.22280120849609</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="2">
         <v>43808</v>
       </c>
       <c r="B239">
-        <v>1749.510009765625</v>
+        <v>114.2673110961914</v>
       </c>
       <c r="C239">
-        <v>80.786575317382812</v>
+        <v>56.88899612426758</v>
       </c>
       <c r="D239">
-        <v>34.28765869140625</v>
+        <v>109.454231262207</v>
       </c>
       <c r="E239">
-        <v>118.3137512207031</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.36786651611328</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="2">
         <v>43809</v>
       </c>
       <c r="B240">
-        <v>1739.2099609375</v>
+        <v>114.8420486450195</v>
       </c>
       <c r="C240">
-        <v>81.089874267578125</v>
+        <v>57.12266159057617</v>
       </c>
       <c r="D240">
-        <v>34.436439514160163</v>
+        <v>109.4248962402344</v>
       </c>
       <c r="E240">
-        <v>118.0956726074219</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.78760528564453</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="2">
         <v>43810</v>
       </c>
       <c r="B241">
-        <v>1748.719970703125</v>
+        <v>113.2249755859375</v>
       </c>
       <c r="C241">
-        <v>82.019363403320312</v>
+        <v>55.60380935668945</v>
       </c>
       <c r="D241">
-        <v>34.634799957275391</v>
+        <v>109.6986236572266</v>
       </c>
       <c r="E241">
-        <v>117.956901550293</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.69090270996094</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="2">
         <v>43811</v>
       </c>
       <c r="B242">
-        <v>1760.329956054688</v>
+        <v>115.7382659912109</v>
       </c>
       <c r="C242">
-        <v>83.50653076171875</v>
+        <v>57.44396209716797</v>
       </c>
       <c r="D242">
-        <v>35.021621704101562</v>
+        <v>111.1846084594727</v>
       </c>
       <c r="E242">
-        <v>118.7102432250977</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.02548980712891</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="2">
         <v>43812</v>
       </c>
       <c r="B243">
-        <v>1760.93994140625</v>
+        <v>114.9102401733398</v>
       </c>
       <c r="C243">
-        <v>82.958625793457031</v>
+        <v>57.06424713134766</v>
       </c>
       <c r="D243">
-        <v>35.190227508544922</v>
+        <v>110.4611740112305</v>
       </c>
       <c r="E243">
-        <v>119.235595703125</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66.95201873779297</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244" s="2">
         <v>43815</v>
       </c>
       <c r="B244">
-        <v>1769.2099609375</v>
+        <v>116.2740478515625</v>
       </c>
       <c r="C244">
-        <v>84.4349365234375</v>
+        <v>59.14780426025391</v>
       </c>
       <c r="D244">
-        <v>35.110881805419922</v>
+        <v>111.5854339599609</v>
       </c>
       <c r="E244">
-        <v>119.4833984375</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.69667816162109</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="2">
         <v>43816</v>
       </c>
       <c r="B245">
-        <v>1790.660034179688</v>
+        <v>115.5336990356445</v>
       </c>
       <c r="C245">
-        <v>84.995933532714844</v>
+        <v>59.59567260742188</v>
       </c>
       <c r="D245">
-        <v>35.606800079345703</v>
+        <v>110.5002746582031</v>
       </c>
       <c r="E245">
-        <v>120.216911315918</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.38720703125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="2">
         <v>43817</v>
       </c>
       <c r="B246">
-        <v>1784.030029296875</v>
+        <v>115.484992980957</v>
       </c>
       <c r="C246">
-        <v>85.635673522949219</v>
+        <v>59.30358505249023</v>
       </c>
       <c r="D246">
-        <v>35.348922729492188</v>
+        <v>110.5100555419922</v>
       </c>
       <c r="E246">
-        <v>118.8093643188477</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.57096099853516</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="2">
         <v>43818</v>
       </c>
       <c r="B247">
-        <v>1792.280029296875</v>
+        <v>115.0758514404297</v>
       </c>
       <c r="C247">
-        <v>87.239921569824219</v>
+        <v>59.51778793334961</v>
       </c>
       <c r="D247">
-        <v>35.745655059814453</v>
+        <v>110.2852020263672</v>
       </c>
       <c r="E247">
-        <v>119.0274353027344</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.10675048828125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="2">
         <v>43819</v>
       </c>
       <c r="B248">
-        <v>1786.5</v>
+        <v>116.5857772827148</v>
       </c>
       <c r="C248">
-        <v>86.34429931640625</v>
+        <v>59.98512649536133</v>
       </c>
       <c r="D248">
-        <v>35.894428253173828</v>
+        <v>110.8131103515625</v>
       </c>
       <c r="E248">
-        <v>119.235595703125</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.63865661621094</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="2">
         <v>43822</v>
       </c>
       <c r="B249">
-        <v>1793</v>
+        <v>117.2189712524414</v>
       </c>
       <c r="C249">
-        <v>86.255714416503906</v>
+        <v>59.0601806640625</v>
       </c>
       <c r="D249">
-        <v>35.914264678955078</v>
+        <v>110.1483306884766</v>
       </c>
       <c r="E249">
-        <v>117.98663330078119</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.97713470458984</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="2">
         <v>43823</v>
       </c>
       <c r="B250">
-        <v>1789.2099609375</v>
+        <v>117.2287063598633</v>
       </c>
       <c r="C250">
-        <v>86.541130065917969</v>
+        <v>59.36200714111328</v>
       </c>
       <c r="D250">
-        <v>35.914264678955078</v>
+        <v>110.6664733886719</v>
       </c>
       <c r="E250">
-        <v>118.4624328613281</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.71601104736328</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="2">
         <v>43825</v>
       </c>
       <c r="B251">
-        <v>1868.77001953125</v>
+        <v>117.4819946289062</v>
       </c>
       <c r="C251">
-        <v>86.462394714355469</v>
+        <v>58.87519073486328</v>
       </c>
       <c r="D251">
-        <v>35.953941345214837</v>
+        <v>109.5519866943359</v>
       </c>
       <c r="E251">
-        <v>118.4723358154297</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.82239532470703</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="2">
         <v>43826</v>
       </c>
       <c r="B252">
-        <v>1869.800048828125</v>
+        <v>117.1897506713867</v>
       </c>
       <c r="C252">
-        <v>85.635673522949219</v>
+        <v>58.78756713867188</v>
       </c>
       <c r="D252">
-        <v>35.775409698486328</v>
+        <v>108.1246643066406</v>
       </c>
       <c r="E252">
-        <v>118.54172515869141</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67.59029388427734</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="2">
         <v>43829</v>
       </c>
       <c r="B253">
-        <v>1846.890014648438</v>
+        <v>116.7513732910156</v>
       </c>
       <c r="C253">
-        <v>86.186820983886719</v>
+        <v>58.09629058837891</v>
       </c>
       <c r="D253">
-        <v>35.507614135742188</v>
+        <v>107.8998184204102</v>
       </c>
       <c r="E253">
-        <v>118.353401184082</v>
+        <v>67.19379425048828</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>